--- a/Defs/BalanceSheet.xlsx
+++ b/Defs/BalanceSheet.xlsx
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="166">
   <si>
     <t>Plant</t>
   </si>
@@ -1159,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1375,6 +1375,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1715,10 +1718,10 @@
   <dimension ref="A1:AJ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X33" sqref="X33"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,7 +1858,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>23</v>
@@ -1906,30 +1909,30 @@
         <v>85</v>
       </c>
       <c r="T2" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U2" s="32">
         <v>1</v>
       </c>
-      <c r="V2" s="38">
+      <c r="V2" s="38" t="str">
         <f>IF(AD2="-","-",ROUND($C2/AD2, 3)*Modifiers!$C$3*IF($E2="Yes",Modifiers!$C$5,1))</f>
-        <v>0.94599999999999995</v>
+        <v>-</v>
       </c>
       <c r="W2" s="39">
         <f>IF(AE2="-","-",ROUND($C2/AE2, 3)*Modifiers!$C$3*IF($E2="Yes",Modifiers!$C$5,1))</f>
-        <v>1.351</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="X2" s="39">
         <f>IF(AF2="-","-",ROUND($C2/AF2, 3)*Modifiers!$C$3*IF($E2="Yes",Modifiers!$C$5,1))</f>
-        <v>1.891</v>
+        <v>1.621</v>
       </c>
       <c r="Y2" s="39">
         <f>IF(AG2="-","-",ROUND($C2/AG2, 3)*Modifiers!$C$3*IF($E2="Yes",Modifiers!$C$5,1))</f>
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="Z2" s="68">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="Z2" s="68" t="str">
         <f>IF(AND(OR($K2&lt;&gt;"-",$L2&lt;&gt;"-"),AD2&lt;&gt;"-",$G2="Yes"),ROUND((IF($K2="-",0,$K2)+IF($L2="-",0,$L2))/AD2,2),"-")</f>
-        <v>60.79</v>
+        <v>-</v>
       </c>
       <c r="AA2" s="37">
         <f t="shared" ref="AA2:AC2" si="0">IF(AND(OR($K2&lt;&gt;"-",$L2&lt;&gt;"-"),AE2&lt;&gt;"-",$G2="Yes"),ROUND((IF($K2="-",0,$K2)+IF($L2="-",0,$L2))/AE2,2),"-")</f>
@@ -1943,9 +1946,9 @@
         <f t="shared" si="0"/>
         <v>199.73</v>
       </c>
-      <c r="AD2" s="69">
+      <c r="AD2" s="69" t="str">
         <f>IF(0.7&gt;=$T2,ROUND(ROUND(B2/0.55*IF(M2="Yes",(1-N2),0.95), 3)/(1-0.3*$U2), 3),"-")</f>
-        <v>7.4029999999999996</v>
+        <v>-</v>
       </c>
       <c r="AE2" s="70">
         <f>IF(1&gt;=$T2,ROUND(B2/0.55*IF(M2="Yes",(1-N2),0.95), 3),"-")</f>
@@ -1973,7 +1976,7 @@
         <v>5.8</v>
       </c>
       <c r="C3" s="27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>29</v>
@@ -2024,26 +2027,26 @@
         <v>85</v>
       </c>
       <c r="T3" s="31">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="U3" s="32">
         <v>0.4</v>
       </c>
       <c r="V3" s="13">
         <f>IF(AD3="-","-",ROUND($C3/AD3, 3)*Modifiers!$C$3*IF($E3="Yes",Modifiers!$C$5,1))</f>
-        <v>1.23</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="W3" s="17">
         <f>IF(AE3="-","-",ROUND($C3/AE3, 3)*Modifiers!$C$3*IF($E3="Yes",Modifiers!$C$5,1))</f>
-        <v>1.397</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="X3" s="17">
         <f>IF(AF3="-","-",ROUND($C3/AF3, 3)*Modifiers!$C$3*IF($E3="Yes",Modifiers!$C$5,1))</f>
-        <v>1.621</v>
+        <v>1.274</v>
       </c>
       <c r="Y3" s="17">
         <f>IF(AG3="-","-",ROUND($C3/AG3, 3)*Modifiers!$C$3*IF($E3="Yes",Modifiers!$C$5,1))</f>
-        <v>2.1240000000000001</v>
+        <v>1.669</v>
       </c>
       <c r="Z3" s="23">
         <f>IF(AND(OR($K3&lt;&gt;"-",$L3&lt;&gt;"-"),AD3&lt;&gt;"-",$G3="Yes"),ROUND((IF($K3="-",0,$K3)+IF($L3="-",0,$L3))/AD3,2),"-")</f>
@@ -2062,19 +2065,19 @@
         <v>68.27</v>
       </c>
       <c r="AD3" s="69">
-        <f t="shared" ref="AD3:AD37" si="5">ROUND($AE3/(1-0.3*$U3), 3)</f>
+        <f t="shared" ref="AD3" si="5">IF(0.7&gt;=$T3,ROUND(ROUND(B3/0.55*IF(M3="Yes",(1-N3),0.95), 3)/(1-0.3*$U3), 3),"-")</f>
         <v>11.384</v>
       </c>
-      <c r="AE3" s="71">
-        <f t="shared" ref="AE3:AE37" si="6">ROUND(B3/0.55*0.95, 3)</f>
+      <c r="AE3" s="75">
+        <f t="shared" ref="AE3" si="6">IF(1&gt;=$T3,ROUND(B3/0.55*IF(M3="Yes",(1-N3),0.95), 3),"-")</f>
         <v>10.018000000000001</v>
       </c>
       <c r="AF3" s="71">
-        <f t="shared" ref="AF3:AF37" si="7">ROUND($AE3/(1+0.4*$U3), 3)</f>
+        <f t="shared" ref="AF3" si="7">IF(1.4&gt;=$T3,ROUND(ROUND(B3/0.55*IF(M3="Yes",(1-N3),0.95), 3)/(1+0.4*$U3), 3),"-")</f>
         <v>8.6359999999999992</v>
       </c>
       <c r="AG3" s="71">
-        <f t="shared" ref="AG3:AG51" si="8">IF(H3="Yes",ROUND($AE3/(1+1.3*$U3), 3),"-")</f>
+        <f t="shared" ref="AG3" si="8">IF(2.3&gt;=$T3,IF(H3="Yes",ROUND(ROUND(B3/0.55*IF(M3="Yes",(1-N3),0.95), 3)/(1+1.3*$U3), 3),"-"),"-")</f>
         <v>6.5910000000000002</v>
       </c>
       <c r="AH3" s="26" t="str">
@@ -2090,7 +2093,7 @@
         <v>11.3</v>
       </c>
       <c r="C4" s="27">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>32</v>
@@ -2141,30 +2144,30 @@
         <v>150</v>
       </c>
       <c r="T4" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U4" s="32">
         <v>1</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="13" t="str">
         <f>IF(AD4="-","-",ROUND($C4/AD4, 3)*Modifiers!$C$3*IF($E4="Yes",Modifiers!$C$5,1))</f>
-        <v>0.96799999999999997</v>
+        <v>-</v>
       </c>
       <c r="W4" s="17">
         <f>IF(AE4="-","-",ROUND($C4/AE4, 3)*Modifiers!$C$3*IF($E4="Yes",Modifiers!$C$5,1))</f>
-        <v>1.383</v>
+        <v>1.127</v>
       </c>
       <c r="X4" s="17">
         <f>IF(AF4="-","-",ROUND($C4/AF4, 3)*Modifiers!$C$3*IF($E4="Yes",Modifiers!$C$5,1))</f>
-        <v>1.9370000000000001</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="Y4" s="17" t="str">
         <f>IF(AG4="-","-",ROUND($C4/AG4, 3)*Modifiers!$C$3*IF($E4="Yes",Modifiers!$C$5,1))</f>
         <v>-</v>
       </c>
-      <c r="Z4" s="23">
+      <c r="Z4" s="23" t="str">
         <f t="shared" ref="Z4:Z51" si="9">IF(AND(OR($K4&lt;&gt;"-",$L4&lt;&gt;"-"),AD4&lt;&gt;"-",$G4="Yes"),ROUND((IF($K4="-",0,$K4)+IF($L4="-",0,$L4))/AD4,2),"-")</f>
-        <v>16.14</v>
+        <v>-</v>
       </c>
       <c r="AA4" s="24">
         <f t="shared" ref="AA4:AA51" si="10">IF(AND(OR($K4&lt;&gt;"-",$L4&lt;&gt;"-"),AE4&lt;&gt;"-",$G4="Yes"),ROUND((IF($K4="-",0,$K4)+IF($L4="-",0,$L4))/AE4,2),"-")</f>
@@ -2178,20 +2181,20 @@
         <f t="shared" ref="AC4:AC51" si="12">IF(AND(OR($K4&lt;&gt;"-",$L4&lt;&gt;"-"),AG4&lt;&gt;"-",$G4="Yes"),ROUND((IF($K4="-",0,$K4)+IF($L4="-",0,$L4))/AG4,2),"-")</f>
         <v>-</v>
       </c>
-      <c r="AD4" s="69">
-        <f t="shared" si="5"/>
-        <v>27.882999999999999</v>
-      </c>
-      <c r="AE4" s="71">
-        <f t="shared" si="6"/>
+      <c r="AD4" s="69" t="str">
+        <f t="shared" ref="AD4:AD51" si="13">IF(0.7&gt;=$T4,ROUND(ROUND(B4/0.55*IF(M4="Yes",(1-N4),0.95), 3)/(1-0.3*$U4), 3),"-")</f>
+        <v>-</v>
+      </c>
+      <c r="AE4" s="75">
+        <f t="shared" ref="AE4:AE51" si="14">IF(1&gt;=$T4,ROUND(B4/0.55*IF(M4="Yes",(1-N4),0.95), 3),"-")</f>
         <v>19.518000000000001</v>
       </c>
       <c r="AF4" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AF4:AF51" si="15">IF(1.4&gt;=$T4,ROUND(ROUND(B4/0.55*IF(M4="Yes",(1-N4),0.95), 3)/(1+0.4*$U4), 3),"-")</f>
         <v>13.941000000000001</v>
       </c>
       <c r="AG4" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AG4:AG51" si="16">IF(2.3&gt;=$T4,IF(H4="Yes",ROUND(ROUND(B4/0.55*IF(M4="Yes",(1-N4),0.95), 3)/(1+1.3*$U4), 3),"-"),"-")</f>
         <v>-</v>
       </c>
       <c r="AH4" s="26" t="str">
@@ -2204,10 +2207,10 @@
         <v>160</v>
       </c>
       <c r="B5" s="23">
-        <v>4.24</v>
+        <v>4.47</v>
       </c>
       <c r="C5" s="27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>162</v>
@@ -2258,61 +2261,61 @@
         <v>45</v>
       </c>
       <c r="T5" s="31">
-        <v>0.65</v>
+        <v>1.4</v>
       </c>
       <c r="U5" s="32">
-        <v>1.7</v>
-      </c>
-      <c r="V5" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="V5" s="13" t="str">
         <f>IF(AD5="-","-",ROUND($C5/AD5, 3)*Modifiers!$C$3*IF($E5="Yes",Modifiers!$C$5,1))</f>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="W5" s="17">
+        <v>-</v>
+      </c>
+      <c r="W5" s="17" t="str">
         <f>IF(AE5="-","-",ROUND($C5/AE5, 3)*Modifiers!$C$3*IF($E5="Yes",Modifiers!$C$5,1))</f>
-        <v>1.2290000000000001</v>
+        <v>-</v>
       </c>
       <c r="X5" s="17">
         <f>IF(AF5="-","-",ROUND($C5/AF5, 3)*Modifiers!$C$3*IF($E5="Yes",Modifiers!$C$5,1))</f>
-        <v>2.0640000000000001</v>
+        <v>1.782</v>
       </c>
       <c r="Y5" s="17">
         <f>IF(AG5="-","-",ROUND($C5/AG5, 3)*Modifiers!$C$3*IF($E5="Yes",Modifiers!$C$5,1))</f>
-        <v>3.944</v>
-      </c>
-      <c r="Z5" s="23">
+        <v>3.46</v>
+      </c>
+      <c r="Z5" s="23" t="str">
         <f>IF(AND(OR($K5&lt;&gt;"-",$L5&lt;&gt;"-"),AD5&lt;&gt;"-",$G5="Yes"),ROUND((IF($K5="-",0,$K5)+IF($L5="-",0,$L5))/AD5,2),"-")</f>
-        <v>30.11</v>
-      </c>
-      <c r="AA5" s="24">
+        <v>-</v>
+      </c>
+      <c r="AA5" s="24" t="str">
         <f t="shared" si="10"/>
-        <v>61.44</v>
+        <v>-</v>
       </c>
       <c r="AB5" s="24">
         <f t="shared" si="11"/>
-        <v>103.21</v>
+        <v>100.25</v>
       </c>
       <c r="AC5" s="24">
         <f t="shared" si="12"/>
-        <v>197.2</v>
-      </c>
-      <c r="AD5" s="69">
-        <f t="shared" si="5"/>
-        <v>14.946999999999999</v>
-      </c>
-      <c r="AE5" s="71">
-        <f t="shared" ref="AE5:AE6" si="13">ROUND(B5/0.55*0.95, 3)</f>
-        <v>7.3239999999999998</v>
+        <v>194.64</v>
+      </c>
+      <c r="AD5" s="69" t="str">
+        <f t="shared" si="13"/>
+        <v>-</v>
+      </c>
+      <c r="AE5" s="75" t="str">
+        <f t="shared" si="14"/>
+        <v>-</v>
       </c>
       <c r="AF5" s="71">
-        <f t="shared" si="7"/>
-        <v>4.3600000000000003</v>
+        <f t="shared" si="15"/>
+        <v>4.4889999999999999</v>
       </c>
       <c r="AG5" s="71">
-        <f t="shared" ref="AG5:AG6" si="14">IF(H5="Yes",ROUND($AE5/(1+1.3*$U5), 3),"-")</f>
-        <v>2.282</v>
+        <f t="shared" si="16"/>
+        <v>2.3119999999999998</v>
       </c>
       <c r="AH5" s="26" t="str">
-        <f t="shared" ref="AH5:AH6" si="15">A5</f>
+        <f t="shared" ref="AH5:AH6" si="17">A5</f>
         <v>Artiveg Plant</v>
       </c>
     </row>
@@ -2321,7 +2324,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="23">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="C6" s="27">
         <v>6</v>
@@ -2375,61 +2378,61 @@
         <v>270</v>
       </c>
       <c r="T6" s="31">
-        <v>0.01</v>
+        <v>0.3</v>
       </c>
       <c r="U6" s="32">
         <v>0.2</v>
       </c>
       <c r="V6" s="13">
         <f>IF(AD6="-","-",ROUND($C6/AD6, 3)*Modifiers!$C$3*IF($E6="Yes",Modifiers!$C$5,1))</f>
-        <v>0.61599999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="W6" s="17">
         <f>IF(AE6="-","-",ROUND($C6/AE6, 3)*Modifiers!$C$3*IF($E6="Yes",Modifiers!$C$5,1))</f>
-        <v>0.65500000000000003</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="X6" s="17">
         <f>IF(AF6="-","-",ROUND($C6/AF6, 3)*Modifiers!$C$3*IF($E6="Yes",Modifiers!$C$5,1))</f>
-        <v>0.70799999999999996</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Y6" s="17" t="str">
         <f>IF(AG6="-","-",ROUND($C6/AG6, 3)*Modifiers!$C$3*IF($E6="Yes",Modifiers!$C$5,1))</f>
         <v>-</v>
       </c>
       <c r="Z6" s="23">
-        <f t="shared" ref="Z6" si="16">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AD6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AD6,2),"-")</f>
-        <v>46.21</v>
+        <f t="shared" ref="Z6" si="18">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AD6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AD6,2),"-")</f>
+        <v>47.1</v>
       </c>
       <c r="AA6" s="24">
-        <f t="shared" ref="AA6" si="17">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AE6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AE6,2),"-")</f>
-        <v>49.15</v>
+        <f t="shared" ref="AA6" si="19">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AE6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AE6,2),"-")</f>
+        <v>50.1</v>
       </c>
       <c r="AB6" s="24">
-        <f t="shared" ref="AB6" si="18">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AF6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AF6,2),"-")</f>
-        <v>53.08</v>
+        <f t="shared" ref="AB6" si="20">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AF6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AF6,2),"-")</f>
+        <v>54.11</v>
       </c>
       <c r="AC6" s="24" t="str">
-        <f t="shared" ref="AC6" si="19">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AG6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AG6,2),"-")</f>
+        <f t="shared" ref="AC6" si="21">IF(AND(OR($K6&lt;&gt;"-",$L6&lt;&gt;"-"),AG6&lt;&gt;"-",$G6="Yes"),ROUND((IF($K6="-",0,$K6)+IF($L6="-",0,$L6))/AG6,2),"-")</f>
         <v>-</v>
       </c>
       <c r="AD6" s="69">
-        <f t="shared" si="5"/>
-        <v>9.7390000000000008</v>
-      </c>
-      <c r="AE6" s="71">
         <f t="shared" si="13"/>
-        <v>9.1549999999999994</v>
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="AE6" s="75">
+        <f t="shared" si="14"/>
+        <v>8.9819999999999993</v>
       </c>
       <c r="AF6" s="71">
-        <f t="shared" si="7"/>
-        <v>8.4770000000000003</v>
+        <f t="shared" si="15"/>
+        <v>8.3170000000000002</v>
       </c>
       <c r="AG6" s="71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH6" s="26" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Duraveg Plant</v>
       </c>
     </row>
@@ -2441,7 +2444,7 @@
         <v>4.62</v>
       </c>
       <c r="C7" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>35</v>
@@ -2499,19 +2502,19 @@
       </c>
       <c r="V7" s="13">
         <f>IF(AD7="-","-",ROUND($C7/AD7, 3)*Modifiers!$C$3*IF($E7="Yes",Modifiers!$C$5,1))</f>
-        <v>1.028</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="W7" s="17">
         <f>IF(AE7="-","-",ROUND($C7/AE7, 3)*Modifiers!$C$3*IF($E7="Yes",Modifiers!$C$5,1))</f>
-        <v>1.2529999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="X7" s="17">
         <f>IF(AF7="-","-",ROUND($C7/AF7, 3)*Modifiers!$C$3*IF($E7="Yes",Modifiers!$C$5,1))</f>
-        <v>1.554</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="Y7" s="17">
         <f>IF(AG7="-","-",ROUND($C7/AG7, 3)*Modifiers!$C$3*IF($E7="Yes",Modifiers!$C$5,1))</f>
-        <v>2.2309999999999999</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="Z7" s="23">
         <f t="shared" si="9"/>
@@ -2530,19 +2533,19 @@
         <v>100.38</v>
       </c>
       <c r="AD7" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>9.7319999999999993</v>
       </c>
-      <c r="AE7" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE7" s="75">
+        <f t="shared" si="14"/>
         <v>7.98</v>
       </c>
       <c r="AF7" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.4349999999999996</v>
       </c>
       <c r="AG7" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.4829999999999997</v>
       </c>
       <c r="AH7" s="26" t="str">
@@ -2558,7 +2561,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="27">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>37</v>
@@ -2616,15 +2619,15 @@
       </c>
       <c r="V8" s="13">
         <f>IF(AD8="-","-",ROUND($C8/AD8, 3)*Modifiers!$C$3*IF($E8="Yes",Modifiers!$C$5,1))</f>
-        <v>1.56</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="W8" s="17">
         <f>IF(AE8="-","-",ROUND($C8/AE8, 3)*Modifiers!$C$3*IF($E8="Yes",Modifiers!$C$5,1))</f>
-        <v>1.9019999999999999</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="X8" s="17">
         <f>IF(AF8="-","-",ROUND($C8/AF8, 3)*Modifiers!$C$3*IF($E8="Yes",Modifiers!$C$5,1))</f>
-        <v>2.359</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="Y8" s="17" t="str">
         <f>IF(AG8="-","-",ROUND($C8/AG8, 3)*Modifiers!$C$3*IF($E8="Yes",Modifiers!$C$5,1))</f>
@@ -2647,19 +2650,19 @@
         <v>-</v>
       </c>
       <c r="AD8" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>14.744999999999999</v>
       </c>
-      <c r="AE8" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE8" s="75">
+        <f t="shared" si="14"/>
         <v>12.090999999999999</v>
       </c>
       <c r="AF8" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>9.7509999999999994</v>
       </c>
       <c r="AG8" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH8" s="26" t="str">
@@ -2733,15 +2736,15 @@
       </c>
       <c r="V9" s="13">
         <f>IF(AD9="-","-",ROUND($C9/AD9, 3)*Modifiers!$C$3*IF($E9="Yes",Modifiers!$C$5,1))</f>
-        <v>1.64</v>
+        <v>2.226</v>
       </c>
       <c r="W9" s="17">
         <f>IF(AE9="-","-",ROUND($C9/AE9, 3)*Modifiers!$C$3*IF($E9="Yes",Modifiers!$C$5,1))</f>
-        <v>1.93</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="X9" s="17">
         <f>IF(AF9="-","-",ROUND($C9/AF9, 3)*Modifiers!$C$3*IF($E9="Yes",Modifiers!$C$5,1))</f>
-        <v>2.3159999999999998</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="Y9" s="17" t="str">
         <f>IF(AG9="-","-",ROUND($C9/AG9, 3)*Modifiers!$C$3*IF($E9="Yes",Modifiers!$C$5,1))</f>
@@ -2764,19 +2767,19 @@
         <v>-</v>
       </c>
       <c r="AD9" s="69">
-        <f t="shared" si="5"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="AE9" s="71">
-        <f t="shared" si="6"/>
-        <v>5.1820000000000004</v>
+        <f t="shared" si="13"/>
+        <v>4.492</v>
+      </c>
+      <c r="AE9" s="75">
+        <f t="shared" si="14"/>
+        <v>3.8180000000000001</v>
       </c>
       <c r="AF9" s="71">
-        <f t="shared" si="7"/>
-        <v>4.3179999999999996</v>
+        <f t="shared" si="15"/>
+        <v>3.1819999999999999</v>
       </c>
       <c r="AG9" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH9" s="26" t="str">
@@ -2850,15 +2853,15 @@
       </c>
       <c r="V10" s="13">
         <f>IF(AD10="-","-",ROUND($C10/AD10, 3)*Modifiers!$C$3*IF($E10="Yes",Modifiers!$C$5,1))</f>
-        <v>1.64</v>
+        <v>2.226</v>
       </c>
       <c r="W10" s="17">
         <f>IF(AE10="-","-",ROUND($C10/AE10, 3)*Modifiers!$C$3*IF($E10="Yes",Modifiers!$C$5,1))</f>
-        <v>1.93</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="X10" s="17">
         <f>IF(AF10="-","-",ROUND($C10/AF10, 3)*Modifiers!$C$3*IF($E10="Yes",Modifiers!$C$5,1))</f>
-        <v>2.3159999999999998</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="Y10" s="17" t="str">
         <f>IF(AG10="-","-",ROUND($C10/AG10, 3)*Modifiers!$C$3*IF($E10="Yes",Modifiers!$C$5,1))</f>
@@ -2881,19 +2884,19 @@
         <v>-</v>
       </c>
       <c r="AD10" s="69">
-        <f t="shared" si="5"/>
-        <v>6.0960000000000001</v>
-      </c>
-      <c r="AE10" s="71">
-        <f t="shared" si="6"/>
-        <v>5.1820000000000004</v>
+        <f t="shared" si="13"/>
+        <v>4.492</v>
+      </c>
+      <c r="AE10" s="75">
+        <f t="shared" si="14"/>
+        <v>3.8180000000000001</v>
       </c>
       <c r="AF10" s="71">
-        <f t="shared" si="7"/>
-        <v>4.3179999999999996</v>
+        <f t="shared" si="15"/>
+        <v>3.1819999999999999</v>
       </c>
       <c r="AG10" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH10" s="26" t="str">
@@ -2909,7 +2912,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>42</v>
@@ -2967,19 +2970,19 @@
       </c>
       <c r="V11" s="13">
         <f>IF(AD11="-","-",ROUND($C11/AD11, 3)*Modifiers!$C$3*IF($E11="Yes",Modifiers!$C$5,1))</f>
-        <v>0.74299999999999999</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="W11" s="17">
         <f>IF(AE11="-","-",ROUND($C11/AE11, 3)*Modifiers!$C$3*IF($E11="Yes",Modifiers!$C$5,1))</f>
-        <v>0.94099999999999995</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="X11" s="17">
         <f>IF(AF11="-","-",ROUND($C11/AF11, 3)*Modifiers!$C$3*IF($E11="Yes",Modifiers!$C$5,1))</f>
-        <v>1.204</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="Y11" s="17">
         <f>IF(AG11="-","-",ROUND($C11/AG11, 3)*Modifiers!$C$3*IF($E11="Yes",Modifiers!$C$5,1))</f>
-        <v>1.7969999999999999</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="Z11" s="23">
         <f t="shared" si="9"/>
@@ -2998,19 +3001,19 @@
         <v>62.2</v>
       </c>
       <c r="AD11" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>17.491</v>
       </c>
-      <c r="AE11" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE11" s="75">
+        <f t="shared" si="14"/>
         <v>13.818</v>
       </c>
       <c r="AF11" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.795</v>
       </c>
       <c r="AG11" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>7.2350000000000003</v>
       </c>
       <c r="AH11" s="26" t="str">
@@ -3026,7 +3029,7 @@
         <v>22.5</v>
       </c>
       <c r="C12" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>43</v>
@@ -3084,15 +3087,15 @@
       </c>
       <c r="V12" s="13">
         <f>IF(AD12="-","-",ROUND($C12/AD12, 3)*Modifiers!$C$3*IF($E12="Yes",Modifiers!$C$5,1))</f>
-        <v>0.14399999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="W12" s="17">
         <f>IF(AE12="-","-",ROUND($C12/AE12, 3)*Modifiers!$C$3*IF($E12="Yes",Modifiers!$C$5,1))</f>
-        <v>0.20599999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="X12" s="17">
         <f>IF(AF12="-","-",ROUND($C12/AF12, 3)*Modifiers!$C$3*IF($E12="Yes",Modifiers!$C$5,1))</f>
-        <v>0.28799999999999998</v>
+        <v>0.216</v>
       </c>
       <c r="Y12" s="17" t="str">
         <f>IF(AG12="-","-",ROUND($C12/AG12, 3)*Modifiers!$C$3*IF($E12="Yes",Modifiers!$C$5,1))</f>
@@ -3115,19 +3118,19 @@
         <v>-</v>
       </c>
       <c r="AD12" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>55.52</v>
       </c>
-      <c r="AE12" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE12" s="75">
+        <f t="shared" si="14"/>
         <v>38.863999999999997</v>
       </c>
       <c r="AF12" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>27.76</v>
       </c>
       <c r="AG12" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH12" s="26" t="str">
@@ -3232,19 +3235,19 @@
         <v>92.19</v>
       </c>
       <c r="AD13" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>16.039000000000001</v>
       </c>
-      <c r="AE13" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE13" s="75">
+        <f t="shared" si="14"/>
         <v>11.227</v>
       </c>
       <c r="AF13" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.0190000000000001</v>
       </c>
       <c r="AG13" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.8810000000000002</v>
       </c>
       <c r="AH13" s="26" t="str">
@@ -3260,7 +3263,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>47</v>
@@ -3318,19 +3321,19 @@
       </c>
       <c r="V14" s="13">
         <f>IF(AD14="-","-",ROUND($C14/AD14, 3)*Modifiers!$C$3*IF($E14="Yes",Modifiers!$C$5,1))</f>
-        <v>0.91500000000000004</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="W14" s="17">
         <f>IF(AE14="-","-",ROUND($C14/AE14, 3)*Modifiers!$C$3*IF($E14="Yes",Modifiers!$C$5,1))</f>
-        <v>1.1579999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="X14" s="17">
         <f>IF(AF14="-","-",ROUND($C14/AF14, 3)*Modifiers!$C$3*IF($E14="Yes",Modifiers!$C$5,1))</f>
-        <v>1.482</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="Y14" s="17">
         <f>IF(AG14="-","-",ROUND($C14/AG14, 3)*Modifiers!$C$3*IF($E14="Yes",Modifiers!$C$5,1))</f>
-        <v>2.2120000000000002</v>
+        <v>1.77</v>
       </c>
       <c r="Z14" s="23">
         <f t="shared" si="9"/>
@@ -3349,19 +3352,19 @@
         <v>99.54</v>
       </c>
       <c r="AD14" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10.932</v>
       </c>
-      <c r="AE14" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE14" s="75">
+        <f t="shared" si="14"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="AF14" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>6.7469999999999999</v>
       </c>
       <c r="AG14" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>4.5209999999999999</v>
       </c>
       <c r="AH14" s="26" t="str">
@@ -3377,7 +3380,7 @@
         <v>7.5</v>
       </c>
       <c r="C15" s="27">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>49</v>
@@ -3435,19 +3438,19 @@
       </c>
       <c r="V15" s="13">
         <f>IF(AD15="-","-",ROUND($C15/AD15, 3)*Modifiers!$C$3*IF($E15="Yes",Modifiers!$C$5,1))</f>
-        <v>0.59399999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="W15" s="17">
         <f>IF(AE15="-","-",ROUND($C15/AE15, 3)*Modifiers!$C$3*IF($E15="Yes",Modifiers!$C$5,1))</f>
-        <v>0.84899999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="X15" s="17">
         <f>IF(AF15="-","-",ROUND($C15/AF15, 3)*Modifiers!$C$3*IF($E15="Yes",Modifiers!$C$5,1))</f>
-        <v>1.1890000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="Y15" s="17">
         <f>IF(AG15="-","-",ROUND($C15/AG15, 3)*Modifiers!$C$3*IF($E15="Yes",Modifiers!$C$5,1))</f>
-        <v>1.9530000000000001</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="Z15" s="23">
         <f t="shared" si="9"/>
@@ -3466,19 +3469,19 @@
         <v>79.89</v>
       </c>
       <c r="AD15" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>18.507000000000001</v>
       </c>
-      <c r="AE15" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE15" s="75">
+        <f t="shared" si="14"/>
         <v>12.955</v>
       </c>
       <c r="AF15" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>9.2539999999999996</v>
       </c>
       <c r="AG15" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.633</v>
       </c>
       <c r="AH15" s="26" t="str">
@@ -3494,7 +3497,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>51</v>
@@ -3552,19 +3555,19 @@
       </c>
       <c r="V16" s="13">
         <f>IF(AD16="-","-",ROUND($C16/AD16, 3)*Modifiers!$C$3*IF($E16="Yes",Modifiers!$C$5,1))</f>
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="W16" s="17">
         <f>IF(AE16="-","-",ROUND($C16/AE16, 3)*Modifiers!$C$3*IF($E16="Yes",Modifiers!$C$5,1))</f>
-        <v>0.64300000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="X16" s="17">
         <f>IF(AF16="-","-",ROUND($C16/AF16, 3)*Modifiers!$C$3*IF($E16="Yes",Modifiers!$C$5,1))</f>
-        <v>0.90100000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="Y16" s="17">
         <f>IF(AG16="-","-",ROUND($C16/AG16, 3)*Modifiers!$C$3*IF($E16="Yes",Modifiers!$C$5,1))</f>
-        <v>1.48</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="Z16" s="23">
         <f t="shared" si="9"/>
@@ -3583,19 +3586,19 @@
         <v>66.58</v>
       </c>
       <c r="AD16" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>22.207000000000001</v>
       </c>
-      <c r="AE16" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE16" s="75">
+        <f t="shared" si="14"/>
         <v>15.545</v>
       </c>
       <c r="AF16" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>11.103999999999999</v>
       </c>
       <c r="AG16" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>6.7590000000000003</v>
       </c>
       <c r="AH16" s="26" t="str">
@@ -3669,15 +3672,15 @@
       </c>
       <c r="V17" s="13">
         <f>IF(AD17="-","-",ROUND($C17/AD17, 3)*Modifiers!$C$3*IF($E17="Yes",Modifiers!$C$5,1))</f>
-        <v>0.36899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="W17" s="17">
         <f>IF(AE17="-","-",ROUND($C17/AE17, 3)*Modifiers!$C$3*IF($E17="Yes",Modifiers!$C$5,1))</f>
-        <v>0.38600000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="X17" s="17">
         <f>IF(AF17="-","-",ROUND($C17/AF17, 3)*Modifiers!$C$3*IF($E17="Yes",Modifiers!$C$5,1))</f>
-        <v>0.40899999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="Y17" s="17" t="str">
         <f>IF(AG17="-","-",ROUND($C17/AG17, 3)*Modifiers!$C$3*IF($E17="Yes",Modifiers!$C$5,1))</f>
@@ -3700,19 +3703,19 @@
         <v>-</v>
       </c>
       <c r="AD17" s="69">
-        <f t="shared" si="5"/>
-        <v>10.852</v>
-      </c>
-      <c r="AE17" s="71">
-        <f t="shared" si="6"/>
-        <v>10.364000000000001</v>
+        <f t="shared" si="13"/>
+        <v>7.9960000000000004</v>
+      </c>
+      <c r="AE17" s="75">
+        <f t="shared" si="14"/>
+        <v>7.6360000000000001</v>
       </c>
       <c r="AF17" s="71">
-        <f t="shared" si="7"/>
-        <v>9.7769999999999992</v>
+        <f t="shared" si="15"/>
+        <v>7.2039999999999997</v>
       </c>
       <c r="AG17" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH17" s="26" t="str">
@@ -3817,19 +3820,19 @@
         <v>-</v>
       </c>
       <c r="AD18" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>72.346999999999994</v>
       </c>
-      <c r="AE18" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE18" s="75">
+        <f t="shared" si="14"/>
         <v>69.090999999999994</v>
       </c>
       <c r="AF18" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>65.180000000000007</v>
       </c>
       <c r="AG18" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH18" s="26" t="str">
@@ -3934,19 +3937,19 @@
         <v>-</v>
       </c>
       <c r="AD19" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>108.51900000000001</v>
       </c>
-      <c r="AE19" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE19" s="75">
+        <f t="shared" si="14"/>
         <v>103.636</v>
       </c>
       <c r="AF19" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>97.77</v>
       </c>
       <c r="AG19" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH19" s="26" t="str">
@@ -4051,19 +4054,19 @@
         <v>-</v>
       </c>
       <c r="AD20" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.6359999999999992</v>
       </c>
-      <c r="AE20" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE20" s="75">
+        <f t="shared" si="14"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="AF20" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="AG20" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH20" s="26" t="str">
@@ -4168,19 +4171,19 @@
         <v>-</v>
       </c>
       <c r="AD21" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>30.481000000000002</v>
       </c>
-      <c r="AE21" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE21" s="75">
+        <f t="shared" si="14"/>
         <v>25.908999999999999</v>
       </c>
       <c r="AF21" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>21.591000000000001</v>
       </c>
       <c r="AG21" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH21" s="26" t="str">
@@ -4285,19 +4288,19 @@
         <v>-</v>
       </c>
       <c r="AD22" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>26.417999999999999</v>
       </c>
-      <c r="AE22" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE22" s="75">
+        <f t="shared" si="14"/>
         <v>22.454999999999998</v>
       </c>
       <c r="AF22" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>18.713000000000001</v>
       </c>
       <c r="AG22" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH22" s="26" t="str">
@@ -4402,19 +4405,19 @@
         <v>-</v>
       </c>
       <c r="AD23" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>71.123999999999995</v>
       </c>
-      <c r="AE23" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE23" s="75">
+        <f t="shared" si="14"/>
         <v>60.454999999999998</v>
       </c>
       <c r="AF23" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>50.378999999999998</v>
       </c>
       <c r="AG23" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH23" s="26" t="str">
@@ -4519,19 +4522,19 @@
         <v>-</v>
       </c>
       <c r="AD24" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>50.802</v>
       </c>
-      <c r="AE24" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE24" s="75">
+        <f t="shared" si="14"/>
         <v>43.182000000000002</v>
       </c>
       <c r="AF24" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>35.984999999999999</v>
       </c>
       <c r="AG24" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH24" s="26" t="str">
@@ -4636,19 +4639,19 @@
         <v>-</v>
       </c>
       <c r="AD25" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>60.962000000000003</v>
       </c>
-      <c r="AE25" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE25" s="75">
+        <f t="shared" si="14"/>
         <v>51.817999999999998</v>
       </c>
       <c r="AF25" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>43.182000000000002</v>
       </c>
       <c r="AG25" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH25" s="26" t="str">
@@ -4753,19 +4756,19 @@
         <v>-</v>
       </c>
       <c r="AD26" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>30.582000000000001</v>
       </c>
-      <c r="AE26" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE26" s="75">
+        <f t="shared" si="14"/>
         <v>25.995000000000001</v>
       </c>
       <c r="AF26" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>21.663</v>
       </c>
       <c r="AG26" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH26" s="26" t="str">
@@ -4870,19 +4873,19 @@
         <v>-</v>
       </c>
       <c r="AD27" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>40.640999999999998</v>
       </c>
-      <c r="AE27" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE27" s="75">
+        <f t="shared" si="14"/>
         <v>34.545000000000002</v>
       </c>
       <c r="AF27" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>28.788</v>
       </c>
       <c r="AG27" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH27" s="26" t="str">
@@ -4987,19 +4990,19 @@
         <v>-</v>
       </c>
       <c r="AD28" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>40.640999999999998</v>
       </c>
-      <c r="AE28" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE28" s="75">
+        <f t="shared" si="14"/>
         <v>34.545000000000002</v>
       </c>
       <c r="AF28" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>28.788</v>
       </c>
       <c r="AG28" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH28" s="26" t="str">
@@ -5104,19 +5107,19 @@
         <v>-</v>
       </c>
       <c r="AD29" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>66.042000000000002</v>
       </c>
-      <c r="AE29" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE29" s="75">
+        <f t="shared" si="14"/>
         <v>56.136000000000003</v>
       </c>
       <c r="AF29" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>46.78</v>
       </c>
       <c r="AG29" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH29" s="26" t="str">
@@ -5221,19 +5224,19 @@
         <v>-</v>
       </c>
       <c r="AD30" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>28.449000000000002</v>
       </c>
-      <c r="AE30" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE30" s="75">
+        <f t="shared" si="14"/>
         <v>24.181999999999999</v>
       </c>
       <c r="AF30" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>20.152000000000001</v>
       </c>
       <c r="AG30" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH30" s="26" t="str">
@@ -5338,19 +5341,19 @@
         <v>-</v>
       </c>
       <c r="AD31" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>28.449000000000002</v>
       </c>
-      <c r="AE31" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE31" s="75">
+        <f t="shared" si="14"/>
         <v>24.181999999999999</v>
       </c>
       <c r="AF31" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>20.152000000000001</v>
       </c>
       <c r="AG31" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH31" s="26" t="str">
@@ -5455,19 +5458,19 @@
         <v>-</v>
       </c>
       <c r="AD32" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>24.385000000000002</v>
       </c>
-      <c r="AE32" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE32" s="75">
+        <f t="shared" si="14"/>
         <v>20.727</v>
       </c>
       <c r="AF32" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>17.273</v>
       </c>
       <c r="AG32" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH32" s="26" t="str">
@@ -5483,7 +5486,7 @@
         <v>6.95</v>
       </c>
       <c r="C33" s="27">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>59</v>
@@ -5534,57 +5537,57 @@
         <v>150</v>
       </c>
       <c r="T33" s="31">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="U33" s="32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="V33" s="13">
         <f>IF(AD33="-","-",ROUND($C33/AD33, 3)*Modifiers!$C$3*IF($E33="Yes",Modifiers!$C$5,1))</f>
-        <v>1.0620000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="W33" s="17">
         <f>IF(AE33="-","-",ROUND($C33/AE33, 3)*Modifiers!$C$3*IF($E33="Yes",Modifiers!$C$5,1))</f>
-        <v>1.2490000000000001</v>
+        <v>1</v>
       </c>
       <c r="X33" s="17">
         <f>IF(AF33="-","-",ROUND($C33/AF33, 3)*Modifiers!$C$3*IF($E33="Yes",Modifiers!$C$5,1))</f>
-        <v>1.4990000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="Y33" s="17" t="str">
         <f>IF(AG33="-","-",ROUND($C33/AG33, 3)*Modifiers!$C$3*IF($E33="Yes",Modifiers!$C$5,1))</f>
         <v>-</v>
       </c>
       <c r="Z33" s="23">
-        <f t="shared" ref="Z33:Z34" si="20">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AD33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AD33,2),"-")</f>
-        <v>141.6</v>
+        <f t="shared" ref="Z33:Z34" si="22">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AD33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AD33,2),"-")</f>
+        <v>136.61000000000001</v>
       </c>
       <c r="AA33" s="24">
-        <f t="shared" ref="AA33:AA34" si="21">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AE33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AE33,2),"-")</f>
+        <f t="shared" ref="AA33:AA34" si="23">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AE33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AE33,2),"-")</f>
         <v>166.6</v>
       </c>
       <c r="AB33" s="24">
-        <f t="shared" ref="AB33:AB34" si="22">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AF33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AF33,2),"-")</f>
-        <v>199.92</v>
+        <f t="shared" ref="AB33:AB34" si="24">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AF33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AF33,2),"-")</f>
+        <v>206.59</v>
       </c>
       <c r="AC33" s="24" t="str">
-        <f t="shared" ref="AC33:AC34" si="23">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AG33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AG33,2),"-")</f>
+        <f t="shared" ref="AC33:AC34" si="25">IF(AND(OR($K33&lt;&gt;"-",$L33&lt;&gt;"-"),AG33&lt;&gt;"-",$G33="Yes"),ROUND((IF($K33="-",0,$K33)+IF($L33="-",0,$L33))/AG33,2),"-")</f>
         <v>-</v>
       </c>
       <c r="AD33" s="69">
-        <f t="shared" si="5"/>
-        <v>14.124000000000001</v>
-      </c>
-      <c r="AE33" s="71">
-        <f t="shared" ref="AE33:AE34" si="24">ROUND(B33/0.55*0.95, 3)</f>
+        <f t="shared" si="13"/>
+        <v>14.64</v>
+      </c>
+      <c r="AE33" s="75">
+        <f t="shared" si="14"/>
         <v>12.005000000000001</v>
       </c>
       <c r="AF33" s="71">
-        <f t="shared" si="7"/>
-        <v>10.004</v>
+        <f t="shared" si="15"/>
+        <v>9.6809999999999992</v>
       </c>
       <c r="AG33" s="71" t="str">
-        <f t="shared" ref="AG33:AG34" si="25">IF(H33="Yes",ROUND($AE33/(1+1.3*$U33), 3),"-")</f>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH33" s="26" t="str">
@@ -5673,35 +5676,35 @@
         <v>-</v>
       </c>
       <c r="Z34" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50.85</v>
       </c>
       <c r="AA34" s="24">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>59.82</v>
       </c>
       <c r="AB34" s="24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>71.790000000000006</v>
       </c>
       <c r="AC34" s="24" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-</v>
       </c>
       <c r="AD34" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>60.962000000000003</v>
       </c>
-      <c r="AE34" s="71">
-        <f t="shared" si="24"/>
+      <c r="AE34" s="75">
+        <f t="shared" si="14"/>
         <v>51.817999999999998</v>
       </c>
       <c r="AF34" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>43.182000000000002</v>
       </c>
       <c r="AG34" s="71" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH34" s="26" t="str">
@@ -5802,19 +5805,19 @@
         <v>-</v>
       </c>
       <c r="AD35" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>121.925</v>
       </c>
-      <c r="AE35" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE35" s="75">
+        <f t="shared" si="14"/>
         <v>103.636</v>
       </c>
       <c r="AF35" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>86.363</v>
       </c>
       <c r="AG35" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH35" s="26" t="str">
@@ -5915,19 +5918,19 @@
         <v>-</v>
       </c>
       <c r="AD36" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>3.7010000000000001</v>
       </c>
-      <c r="AE36" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE36" s="75">
+        <f t="shared" si="14"/>
         <v>2.5910000000000002</v>
       </c>
       <c r="AF36" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.851</v>
       </c>
       <c r="AG36" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH36" s="26" t="str">
@@ -6028,19 +6031,19 @@
         <v>-</v>
       </c>
       <c r="AD37" s="69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>3.7010000000000001</v>
       </c>
-      <c r="AE37" s="71">
-        <f t="shared" si="6"/>
+      <c r="AE37" s="75">
+        <f t="shared" si="14"/>
         <v>2.5910000000000002</v>
       </c>
       <c r="AF37" s="71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>1.851</v>
       </c>
       <c r="AG37" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH37" s="26" t="str">
@@ -6140,17 +6143,20 @@
         <f t="shared" si="12"/>
         <v>-</v>
       </c>
-      <c r="AD38" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE38" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF38" s="71" t="s">
-        <v>26</v>
+      <c r="AD38" s="69">
+        <f t="shared" si="13"/>
+        <v>51.817999999999998</v>
+      </c>
+      <c r="AE38" s="75">
+        <f t="shared" si="14"/>
+        <v>51.817999999999998</v>
+      </c>
+      <c r="AF38" s="71">
+        <f t="shared" si="15"/>
+        <v>51.817999999999998</v>
       </c>
       <c r="AG38" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH38" s="26" t="str">
@@ -6251,19 +6257,19 @@
         <v>-</v>
       </c>
       <c r="AD39" s="69">
-        <f t="shared" ref="AD39:AD51" si="27">ROUND($AE39/(1-0.3*$U39), 3)</f>
+        <f t="shared" si="13"/>
         <v>4.3179999999999996</v>
       </c>
-      <c r="AE39" s="71">
-        <f t="shared" ref="AE39:AE51" si="28">ROUND(B39/0.55*0.95, 3)</f>
+      <c r="AE39" s="75">
+        <f t="shared" si="14"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AF39" s="71">
-        <f t="shared" ref="AF39:AF51" si="29">ROUND($AE39/(1+0.4*$U39), 3)</f>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG39" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH39" s="26" t="str">
@@ -6364,19 +6370,19 @@
         <v>-</v>
       </c>
       <c r="AD40" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>4.7450000000000001</v>
       </c>
-      <c r="AE40" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE40" s="75">
+        <f t="shared" si="14"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AF40" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>3.855</v>
       </c>
       <c r="AG40" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH40" s="26" t="str">
@@ -6477,19 +6483,19 @@
         <v>-</v>
       </c>
       <c r="AD41" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.5590000000000002</v>
       </c>
-      <c r="AE41" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE41" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF41" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.048</v>
       </c>
       <c r="AG41" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH41" s="26" t="str">
@@ -6590,19 +6596,19 @@
         <v>-</v>
       </c>
       <c r="AD42" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="AE42" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE42" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF42" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG42" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH42" s="26" t="str">
@@ -6703,19 +6709,19 @@
         <v>-</v>
       </c>
       <c r="AD43" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.5590000000000002</v>
       </c>
-      <c r="AE43" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE43" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF43" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.048</v>
       </c>
       <c r="AG43" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH43" s="26" t="str">
@@ -6816,19 +6822,19 @@
         <v>-</v>
       </c>
       <c r="AD44" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>10.932</v>
       </c>
-      <c r="AE44" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE44" s="75">
+        <f t="shared" si="14"/>
         <v>8.6359999999999992</v>
       </c>
       <c r="AF44" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>6.7469999999999999</v>
       </c>
       <c r="AG44" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH44" s="26" t="str">
@@ -6929,19 +6935,19 @@
         <v>-</v>
       </c>
       <c r="AD45" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>4.3179999999999996</v>
       </c>
-      <c r="AE45" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE45" s="75">
+        <f t="shared" si="14"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AF45" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG45" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH45" s="26" t="str">
@@ -7042,19 +7048,19 @@
         <v>-</v>
       </c>
       <c r="AD46" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>4.3179999999999996</v>
       </c>
-      <c r="AE46" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE46" s="75">
+        <f t="shared" si="14"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AF46" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG46" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH46" s="26" t="str">
@@ -7155,19 +7161,19 @@
         <v>-</v>
       </c>
       <c r="AD47" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>12.955</v>
       </c>
-      <c r="AE47" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE47" s="75">
+        <f t="shared" si="14"/>
         <v>12.955</v>
       </c>
       <c r="AF47" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>12.955</v>
       </c>
       <c r="AG47" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH47" s="26" t="str">
@@ -7268,19 +7274,19 @@
         <v>-</v>
       </c>
       <c r="AD48" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>5.1820000000000004</v>
       </c>
-      <c r="AE48" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE48" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF48" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AG48" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH48" s="26" t="str">
@@ -7381,19 +7387,19 @@
         <v>-</v>
       </c>
       <c r="AD49" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="AE49" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE49" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF49" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG49" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH49" s="26" t="str">
@@ -7494,19 +7500,19 @@
         <v>-</v>
       </c>
       <c r="AD50" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="AE50" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE50" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF50" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG50" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH50" s="26" t="str">
@@ -7607,19 +7613,19 @@
         <v>-</v>
       </c>
       <c r="AD51" s="69">
-        <f t="shared" si="27"/>
+        <f t="shared" si="13"/>
         <v>6.0960000000000001</v>
       </c>
-      <c r="AE51" s="71">
-        <f t="shared" si="28"/>
+      <c r="AE51" s="75">
+        <f t="shared" si="14"/>
         <v>5.1820000000000004</v>
       </c>
       <c r="AF51" s="71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="15"/>
         <v>4.3179999999999996</v>
       </c>
       <c r="AG51" s="71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>-</v>
       </c>
       <c r="AH51" s="26" t="str">
@@ -7690,36 +7696,36 @@
       <c r="I1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="75" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="75" t="s">
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="75" t="s">
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="75" t="s">
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="78"/>
       <c r="AD1" s="9" t="s">
         <v>0</v>
       </c>
@@ -7742,101 +7748,101 @@
       <c r="E2" s="45">
         <v>40</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="str">
         <f>IF(VLOOKUP($A2,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A2,General!$A$2:$AH$51,22,FALSE)*$C2, 4))</f>
-        <v>4.7300000000000002E-2</v>
+        <v>-</v>
       </c>
       <c r="G2" s="39">
         <f>IF(VLOOKUP($A2,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A2,General!$A$2:$AH$51,23,FALSE)*$C2, 4))</f>
-        <v>6.7599999999999993E-2</v>
+        <v>5.79E-2</v>
       </c>
       <c r="H2" s="39">
         <f>IF(VLOOKUP($A2,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A2,General!$A$2:$AH$51,24,FALSE)*$C2, 4))</f>
-        <v>9.4600000000000004E-2</v>
+        <v>8.1100000000000005E-2</v>
       </c>
       <c r="I2" s="74">
         <f>IF(VLOOKUP($A2,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A2,General!$A$2:$AH$51,25,FALSE)*$C2, 4))</f>
-        <v>0.15540000000000001</v>
-      </c>
-      <c r="J2" s="44">
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="J2" s="44" t="str">
         <f>IF($F2="-","-",ROUNDUP(1.6/$F2, 1))</f>
-        <v>33.9</v>
+        <v>-</v>
       </c>
       <c r="K2" s="44">
         <f>IF($G2="-","-",ROUNDUP(1.6/$G2, 1))</f>
-        <v>23.700000000000003</v>
+        <v>27.700000000000003</v>
       </c>
       <c r="L2" s="44">
         <f>IF($H2="-","-",ROUNDUP(1.6/$H2, 1))</f>
-        <v>17</v>
+        <v>19.8</v>
       </c>
       <c r="M2" s="44">
         <f>IF($I2="-","-",ROUNDUP(1.6/$I2, 1))</f>
-        <v>10.299999999999999</v>
-      </c>
-      <c r="N2" s="40">
+        <v>12.1</v>
+      </c>
+      <c r="N2" s="40" t="str">
         <f>IF($F2="-","-",ROUNDUP(1/$F2, 1))</f>
-        <v>21.200000000000003</v>
+        <v>-</v>
       </c>
       <c r="O2" s="41">
         <f>IF($G2="-","-",ROUNDUP(1/$G2, 1))</f>
-        <v>14.799999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="P2" s="41">
         <f>IF($H2="-","-",ROUNDUP(1/$H2, 1))</f>
-        <v>10.6</v>
+        <v>12.4</v>
       </c>
       <c r="Q2" s="46">
         <f>IF($I2="-","-",ROUNDUP(1/$I2, 1))</f>
-        <v>6.5</v>
-      </c>
-      <c r="R2" s="44">
+        <v>7.6</v>
+      </c>
+      <c r="R2" s="44" t="str">
         <f>IF($F2="-","-",ROUNDUP(0.64/$F2, 1))</f>
-        <v>13.6</v>
+        <v>-</v>
       </c>
       <c r="S2" s="44">
         <f>IF($G2="-","-",ROUNDUP(0.64/$G2, 1))</f>
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="T2" s="44">
         <f>IF($H2="-","-",ROUNDUP(0.64/$H2, 1))</f>
-        <v>6.8</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="U2" s="44">
         <f>IF($I2="-","-",ROUNDUP(0.64/$I2, 1))</f>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="V2" s="40">
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="V2" s="40" t="str">
         <f>IF($F2="-","-",ROUNDUP(0.6/$F2, 1))</f>
-        <v>12.7</v>
+        <v>-</v>
       </c>
       <c r="W2" s="41">
         <f>IF($G2="-","-",ROUNDUP(0.6/$G2, 1))</f>
-        <v>8.9</v>
+        <v>10.4</v>
       </c>
       <c r="X2" s="41">
         <f>IF($H2="-","-",ROUNDUP(0.6/$H2, 1))</f>
-        <v>6.3999999999999995</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="Y2" s="46">
         <f>IF($I2="-","-",ROUNDUP(0.6/$I2, 1))</f>
-        <v>3.9</v>
-      </c>
-      <c r="Z2" s="44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z2" s="44" t="str">
         <f>IF($F2="-","-",ROUNDUP(0.5/$F2, 1))</f>
-        <v>10.6</v>
+        <v>-</v>
       </c>
       <c r="AA2" s="44">
         <f>IF($G2="-","-",ROUNDUP(0.5/$G2, 1))</f>
-        <v>7.3999999999999995</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AB2" s="44">
         <f>IF($H2="-","-",ROUNDUP(0.5/$H2, 1))</f>
-        <v>5.3</v>
+        <v>6.1999999999999993</v>
       </c>
       <c r="AC2" s="44">
         <f>IF($I2="-","-",ROUNDUP(0.5/$I2, 1))</f>
-        <v>3.3000000000000003</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AD2" s="47" t="str">
         <f t="shared" ref="AD2:AD13" si="0">$A2</f>
@@ -7863,99 +7869,99 @@
       </c>
       <c r="F3" s="13">
         <f>IF(VLOOKUP($A3,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A3,General!$A$2:$AH$51,22,FALSE)*$C3, 4))</f>
-        <v>6.1499999999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="G3" s="17">
         <f>IF(VLOOKUP($A3,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A3,General!$A$2:$AH$51,23,FALSE)*$C3, 4))</f>
-        <v>6.9900000000000004E-2</v>
+        <v>5.4899999999999997E-2</v>
       </c>
       <c r="H3" s="17">
         <f>IF(VLOOKUP($A3,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A3,General!$A$2:$AH$51,24,FALSE)*$C3, 4))</f>
-        <v>8.1100000000000005E-2</v>
+        <v>6.3700000000000007E-2</v>
       </c>
       <c r="I3" s="18">
         <f>IF(VLOOKUP($A3,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A3,General!$A$2:$AH$51,25,FALSE)*$C3, 4))</f>
-        <v>0.1062</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="J3" s="16">
         <f>IF($F3="-","-",ROUNDUP(1.6/$F3, 1))</f>
-        <v>26.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="K3" s="14">
         <f>IF($G3="-","-",ROUNDUP(1.6/$G3, 1))</f>
-        <v>22.900000000000002</v>
+        <v>29.200000000000003</v>
       </c>
       <c r="L3" s="14">
         <f>IF($H3="-","-",ROUNDUP(1.6/$H3, 1))</f>
-        <v>19.8</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="M3" s="14">
         <f>IF($I3="-","-",ROUNDUP(1.6/$I3, 1))</f>
-        <v>15.1</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="N3" s="13">
         <f>IF($F3="-","-",ROUNDUP(1/$F3, 1))</f>
-        <v>16.3</v>
+        <v>20.8</v>
       </c>
       <c r="O3" s="17">
         <f>IF($G3="-","-",ROUNDUP(1/$G3, 1))</f>
-        <v>14.4</v>
+        <v>18.3</v>
       </c>
       <c r="P3" s="17">
         <f>IF($H3="-","-",ROUNDUP(1/$H3, 1))</f>
-        <v>12.4</v>
+        <v>15.7</v>
       </c>
       <c r="Q3" s="18">
         <f>IF($I3="-","-",ROUNDUP(1/$I3, 1))</f>
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="R3" s="14">
         <f>IF($F3="-","-",ROUNDUP(0.64/$F3, 1))</f>
-        <v>10.5</v>
+        <v>13.299999999999999</v>
       </c>
       <c r="S3" s="14">
         <f>IF($G3="-","-",ROUNDUP(0.64/$G3, 1))</f>
-        <v>9.1999999999999993</v>
+        <v>11.7</v>
       </c>
       <c r="T3" s="14">
         <f>IF($H3="-","-",ROUNDUP(0.64/$H3, 1))</f>
-        <v>7.8999999999999995</v>
+        <v>10.1</v>
       </c>
       <c r="U3" s="14">
         <f>IF($I3="-","-",ROUNDUP(0.64/$I3, 1))</f>
-        <v>6.1</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="V3" s="13">
         <f>IF($F3="-","-",ROUNDUP(0.6/$F3, 1))</f>
-        <v>9.7999999999999989</v>
+        <v>12.5</v>
       </c>
       <c r="W3" s="17">
         <f>IF($G3="-","-",ROUNDUP(0.6/$G3, 1))</f>
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="X3" s="17">
         <f>IF($H3="-","-",ROUNDUP(0.6/$H3, 1))</f>
-        <v>7.3999999999999995</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" s="18">
         <f>IF($I3="-","-",ROUNDUP(0.6/$I3, 1))</f>
-        <v>5.6999999999999993</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="Z3" s="14">
         <f>IF($F3="-","-",ROUNDUP(0.5/$F3, 1))</f>
-        <v>8.1999999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="AA3" s="14">
         <f>IF($G3="-","-",ROUNDUP(0.5/$G3, 1))</f>
-        <v>7.1999999999999993</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="AB3" s="14">
         <f>IF($H3="-","-",ROUNDUP(0.5/$H3, 1))</f>
-        <v>6.1999999999999993</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="AC3" s="15">
         <f>IF($I3="-","-",ROUNDUP(0.5/$I3, 1))</f>
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f t="shared" si="0"/>
@@ -7980,97 +7986,97 @@
       <c r="E4" s="27">
         <v>60</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="13" t="str">
         <f>IF(VLOOKUP($A4,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A4,General!$A$2:$AH$51,22,FALSE)*$C4, 4))</f>
-        <v>4.8399999999999999E-2</v>
+        <v>-</v>
       </c>
       <c r="G4" s="17">
         <f>IF(VLOOKUP($A4,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A4,General!$A$2:$AH$51,23,FALSE)*$C4, 4))</f>
-        <v>6.9199999999999998E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="H4" s="17">
         <f>IF(VLOOKUP($A4,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A4,General!$A$2:$AH$51,24,FALSE)*$C4, 4))</f>
-        <v>9.69E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="I4" s="18" t="str">
         <f>IF(VLOOKUP($A4,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A4,General!$A$2:$AH$51,25,FALSE)*$C4, 4))</f>
         <v>-</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="16" t="str">
         <f>IF($F4="-","-",ROUNDUP(1.6/$F4, 1))</f>
-        <v>33.1</v>
+        <v>-</v>
       </c>
       <c r="K4" s="14">
         <f>IF($G4="-","-",ROUNDUP(1.6/$G4, 1))</f>
-        <v>23.200000000000003</v>
+        <v>28.400000000000002</v>
       </c>
       <c r="L4" s="14">
         <f>IF($H4="-","-",ROUNDUP(1.6/$H4, 1))</f>
-        <v>16.600000000000001</v>
+        <v>20.3</v>
       </c>
       <c r="M4" s="14" t="str">
         <f>IF($I4="-","-",ROUNDUP(1.6/$I4, 1))</f>
         <v>-</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="13" t="str">
         <f>IF($F4="-","-",ROUNDUP(1/$F4, 1))</f>
-        <v>20.700000000000003</v>
+        <v>-</v>
       </c>
       <c r="O4" s="17">
         <f>IF($G4="-","-",ROUNDUP(1/$G4, 1))</f>
-        <v>14.5</v>
+        <v>17.8</v>
       </c>
       <c r="P4" s="17">
         <f>IF($H4="-","-",ROUNDUP(1/$H4, 1))</f>
-        <v>10.4</v>
+        <v>12.7</v>
       </c>
       <c r="Q4" s="18" t="str">
         <f t="shared" ref="Q4:Q13" si="1">IF($I4="-","-",ROUNDUP(1/$I4, 1))</f>
         <v>-</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="14" t="str">
         <f>IF($F4="-","-",ROUNDUP(0.64/$F4, 1))</f>
-        <v>13.299999999999999</v>
+        <v>-</v>
       </c>
       <c r="S4" s="14">
         <f>IF($G4="-","-",ROUNDUP(0.64/$G4, 1))</f>
-        <v>9.2999999999999989</v>
+        <v>11.4</v>
       </c>
       <c r="T4" s="14">
         <f>IF($H4="-","-",ROUNDUP(0.64/$H4, 1))</f>
-        <v>6.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="U4" s="14" t="str">
         <f t="shared" ref="U4:U13" si="2">IF($I4="-","-",ROUNDUP(0.64/$I4, 1))</f>
         <v>-</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="13" t="str">
         <f>IF($F4="-","-",ROUNDUP(0.6/$F4, 1))</f>
-        <v>12.4</v>
+        <v>-</v>
       </c>
       <c r="W4" s="17">
         <f>IF($G4="-","-",ROUNDUP(0.6/$G4, 1))</f>
-        <v>8.6999999999999993</v>
+        <v>10.7</v>
       </c>
       <c r="X4" s="17">
         <f>IF($H4="-","-",ROUNDUP(0.6/$H4, 1))</f>
-        <v>6.1999999999999993</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="Y4" s="18" t="str">
         <f t="shared" ref="Y4:Y12" si="3">IF($I4="-","-",ROUNDUP(0.6/$I4, 1))</f>
         <v>-</v>
       </c>
-      <c r="Z4" s="14">
+      <c r="Z4" s="14" t="str">
         <f>IF($F4="-","-",ROUNDUP(0.5/$F4, 1))</f>
-        <v>10.4</v>
+        <v>-</v>
       </c>
       <c r="AA4" s="14">
         <f>IF($G4="-","-",ROUNDUP(0.5/$G4, 1))</f>
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="AB4" s="14">
         <f>IF($H4="-","-",ROUNDUP(0.5/$H4, 1))</f>
-        <v>5.1999999999999993</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="AC4" s="15" t="str">
         <f>IF($I4="-","-",ROUNDUP(0.5/$I4, 1))</f>
@@ -8099,101 +8105,101 @@
       <c r="E5" s="27">
         <v>40</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="13" t="str">
         <f>IF(VLOOKUP($A5,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A5,General!$A$2:$AH$51,22,FALSE)*$C5, 4))</f>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="G5" s="17">
+        <v>-</v>
+      </c>
+      <c r="G5" s="17" t="str">
         <f>IF(VLOOKUP($A5,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A5,General!$A$2:$AH$51,23,FALSE)*$C5, 4))</f>
-        <v>6.1499999999999999E-2</v>
+        <v>-</v>
       </c>
       <c r="H5" s="17">
         <f>IF(VLOOKUP($A5,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A5,General!$A$2:$AH$51,24,FALSE)*$C5, 4))</f>
-        <v>0.1032</v>
+        <v>8.9099999999999999E-2</v>
       </c>
       <c r="I5" s="18">
         <f>IF(VLOOKUP($A5,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A5,General!$A$2:$AH$51,25,FALSE)*$C5, 4))</f>
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="J5" s="16">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="J5" s="16" t="str">
         <f t="shared" ref="J5:J6" si="4">IF($F5="-","-",ROUNDUP(1.6/$F5, 1))</f>
-        <v>53.2</v>
-      </c>
-      <c r="K5" s="14">
+        <v>-</v>
+      </c>
+      <c r="K5" s="14" t="str">
         <f t="shared" ref="K5:K6" si="5">IF($G5="-","-",ROUNDUP(1.6/$G5, 1))</f>
-        <v>26.1</v>
+        <v>-</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" ref="L5:L6" si="6">IF($H5="-","-",ROUNDUP(1.6/$H5, 1))</f>
-        <v>15.6</v>
+        <v>18</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" ref="M5:M6" si="7">IF($I5="-","-",ROUNDUP(1.6/$I5, 1))</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N5" s="13">
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="N5" s="13" t="str">
         <f t="shared" ref="N5:N6" si="8">IF($F5="-","-",ROUNDUP(1/$F5, 1))</f>
-        <v>33.300000000000004</v>
-      </c>
-      <c r="O5" s="17">
+        <v>-</v>
+      </c>
+      <c r="O5" s="17" t="str">
         <f t="shared" ref="O5:O6" si="9">IF($G5="-","-",ROUNDUP(1/$G5, 1))</f>
-        <v>16.3</v>
+        <v>-</v>
       </c>
       <c r="P5" s="17">
         <f t="shared" ref="P5:P6" si="10">IF($H5="-","-",ROUNDUP(1/$H5, 1))</f>
-        <v>9.6999999999999993</v>
+        <v>11.299999999999999</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="1"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="R5" s="14">
+        <v>5.8</v>
+      </c>
+      <c r="R5" s="14" t="str">
         <f t="shared" ref="R5:R6" si="11">IF($F5="-","-",ROUNDUP(0.64/$F5, 1))</f>
-        <v>21.3</v>
-      </c>
-      <c r="S5" s="14">
+        <v>-</v>
+      </c>
+      <c r="S5" s="14" t="str">
         <f t="shared" ref="S5:S6" si="12">IF($G5="-","-",ROUNDUP(0.64/$G5, 1))</f>
-        <v>10.5</v>
+        <v>-</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" ref="T5:T6" si="13">IF($H5="-","-",ROUNDUP(0.64/$H5, 1))</f>
-        <v>6.3</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U5" s="14">
         <f t="shared" si="2"/>
-        <v>3.3000000000000003</v>
-      </c>
-      <c r="V5" s="13">
+        <v>3.7</v>
+      </c>
+      <c r="V5" s="13" t="str">
         <f t="shared" ref="V5:V6" si="14">IF($F5="-","-",ROUNDUP(0.6/$F5, 1))</f>
-        <v>20</v>
-      </c>
-      <c r="W5" s="17">
+        <v>-</v>
+      </c>
+      <c r="W5" s="17" t="str">
         <f t="shared" ref="W5:W6" si="15">IF($G5="-","-",ROUNDUP(0.6/$G5, 1))</f>
-        <v>9.7999999999999989</v>
+        <v>-</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:X6" si="16">IF($H5="-","-",ROUNDUP(0.6/$H5, 1))</f>
-        <v>5.8999999999999995</v>
+        <v>6.8</v>
       </c>
       <c r="Y5" s="18">
         <f t="shared" si="3"/>
-        <v>3.1</v>
-      </c>
-      <c r="Z5" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="Z5" s="14" t="str">
         <f t="shared" ref="Z5:Z6" si="17">IF($F5="-","-",ROUNDUP(0.5/$F5, 1))</f>
-        <v>16.700000000000003</v>
-      </c>
-      <c r="AA5" s="14">
+        <v>-</v>
+      </c>
+      <c r="AA5" s="14" t="str">
         <f t="shared" ref="AA5:AA6" si="18">IF($G5="-","-",ROUNDUP(0.5/$G5, 1))</f>
-        <v>8.1999999999999993</v>
+        <v>-</v>
       </c>
       <c r="AB5" s="14">
         <f t="shared" ref="AB5:AB6" si="19">IF($H5="-","-",ROUNDUP(0.5/$H5, 1))</f>
-        <v>4.8999999999999995</v>
+        <v>5.6999999999999993</v>
       </c>
       <c r="AC5" s="15">
         <f t="shared" ref="AC5:AC6" si="20">IF($I5="-","-",ROUNDUP(0.5/$I5, 1))</f>
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -8220,15 +8226,15 @@
       </c>
       <c r="F6" s="13">
         <f>IF(VLOOKUP($A6,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A6,General!$A$2:$AH$51,22,FALSE)*$C6, 4))</f>
-        <v>3.0800000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="G6" s="17">
         <f>IF(VLOOKUP($A6,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A6,General!$A$2:$AH$51,23,FALSE)*$C6, 4))</f>
-        <v>3.2800000000000003E-2</v>
+        <v>3.3399999999999999E-2</v>
       </c>
       <c r="H6" s="17">
         <f>IF(VLOOKUP($A6,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A6,General!$A$2:$AH$51,24,FALSE)*$C6, 4))</f>
-        <v>3.5400000000000001E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="I6" s="18" t="str">
         <f>IF(VLOOKUP($A6,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A6,General!$A$2:$AH$51,25,FALSE)*$C6, 4))</f>
@@ -8236,15 +8242,15 @@
       </c>
       <c r="J6" s="16">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="5"/>
-        <v>48.800000000000004</v>
+        <v>48</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="6"/>
-        <v>45.2</v>
+        <v>44.4</v>
       </c>
       <c r="M6" s="14" t="str">
         <f t="shared" si="7"/>
@@ -8252,15 +8258,15 @@
       </c>
       <c r="N6" s="13">
         <f t="shared" si="8"/>
-        <v>32.5</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="O6" s="17">
         <f t="shared" si="9"/>
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="10"/>
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="Q6" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8268,15 +8274,15 @@
       </c>
       <c r="R6" s="14">
         <f t="shared" si="11"/>
-        <v>20.8</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="12"/>
-        <v>19.600000000000001</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="13"/>
-        <v>18.100000000000001</v>
+        <v>17.8</v>
       </c>
       <c r="U6" s="14" t="str">
         <f t="shared" si="2"/>
@@ -8284,15 +8290,15 @@
       </c>
       <c r="V6" s="13">
         <f t="shared" si="14"/>
-        <v>19.5</v>
+        <v>19.200000000000003</v>
       </c>
       <c r="W6" s="17">
         <f t="shared" si="15"/>
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="X6" s="17">
         <f t="shared" si="16"/>
-        <v>17</v>
+        <v>16.700000000000003</v>
       </c>
       <c r="Y6" s="18" t="str">
         <f t="shared" si="3"/>
@@ -8300,15 +8306,15 @@
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="17"/>
-        <v>16.3</v>
+        <v>16</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="18"/>
-        <v>15.299999999999999</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="19"/>
-        <v>14.2</v>
+        <v>13.9</v>
       </c>
       <c r="AC6" s="15" t="str">
         <f t="shared" si="20"/>
@@ -8339,99 +8345,99 @@
       </c>
       <c r="F7" s="13">
         <f>IF(VLOOKUP($A7,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A7,General!$A$2:$AH$51,22,FALSE)*$C7, 4))</f>
-        <v>5.1400000000000001E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="G7" s="17">
         <f>IF(VLOOKUP($A7,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A7,General!$A$2:$AH$51,23,FALSE)*$C7, 4))</f>
-        <v>6.2700000000000006E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="H7" s="17">
         <f>IF(VLOOKUP($A7,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A7,General!$A$2:$AH$51,24,FALSE)*$C7, 4))</f>
-        <v>7.7700000000000005E-2</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="I7" s="18">
         <f>IF(VLOOKUP($A7,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A7,General!$A$2:$AH$51,25,FALSE)*$C7, 4))</f>
-        <v>0.1116</v>
+        <v>8.9300000000000004E-2</v>
       </c>
       <c r="J7" s="16">
         <f>IF($F7="-","-",ROUNDUP(1.6/$F7, 1))</f>
-        <v>31.200000000000003</v>
+        <v>39</v>
       </c>
       <c r="K7" s="14">
         <f>IF($G7="-","-",ROUNDUP(1.6/$G7, 1))</f>
-        <v>25.6</v>
+        <v>31.900000000000002</v>
       </c>
       <c r="L7" s="14">
         <f>IF($H7="-","-",ROUNDUP(1.6/$H7, 1))</f>
-        <v>20.6</v>
+        <v>25.8</v>
       </c>
       <c r="M7" s="14">
         <f>IF($I7="-","-",ROUNDUP(1.6/$I7, 1))</f>
-        <v>14.4</v>
+        <v>18</v>
       </c>
       <c r="N7" s="13">
         <f>IF($F7="-","-",ROUNDUP(1/$F7, 1))</f>
-        <v>19.5</v>
+        <v>24.400000000000002</v>
       </c>
       <c r="O7" s="17">
         <f>IF($G7="-","-",ROUNDUP(1/$G7, 1))</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P7" s="17">
         <f>IF($H7="-","-",ROUNDUP(1/$H7, 1))</f>
-        <v>12.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q7" s="18">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11.2</v>
       </c>
       <c r="R7" s="14">
         <f>IF($F7="-","-",ROUNDUP(0.64/$F7, 1))</f>
-        <v>12.5</v>
+        <v>15.6</v>
       </c>
       <c r="S7" s="14">
         <f>IF($G7="-","-",ROUNDUP(0.64/$G7, 1))</f>
-        <v>10.299999999999999</v>
+        <v>12.799999999999999</v>
       </c>
       <c r="T7" s="14">
         <f>IF($H7="-","-",ROUNDUP(0.64/$H7, 1))</f>
-        <v>8.2999999999999989</v>
+        <v>10.299999999999999</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="2"/>
-        <v>5.8</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="V7" s="13">
         <f>IF($F7="-","-",ROUNDUP(0.6/$F7, 1))</f>
-        <v>11.7</v>
+        <v>14.6</v>
       </c>
       <c r="W7" s="17">
         <f>IF($G7="-","-",ROUNDUP(0.6/$G7, 1))</f>
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="X7" s="17">
         <f>IF($H7="-","-",ROUNDUP(0.6/$H7, 1))</f>
-        <v>7.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Y7" s="18">
         <f t="shared" si="3"/>
-        <v>5.3999999999999995</v>
+        <v>6.8</v>
       </c>
       <c r="Z7" s="14">
         <f>IF($F7="-","-",ROUNDUP(0.5/$F7, 1))</f>
-        <v>9.7999999999999989</v>
+        <v>12.2</v>
       </c>
       <c r="AA7" s="14">
         <f>IF($G7="-","-",ROUNDUP(0.5/$G7, 1))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB7" s="14">
         <f>IF($H7="-","-",ROUNDUP(0.5/$H7, 1))</f>
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="AC7" s="15">
         <f>IF($I7="-","-",ROUNDUP(0.5/$I7, 1))</f>
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD7" s="26" t="str">
         <f t="shared" si="0"/>
@@ -8458,15 +8464,15 @@
       </c>
       <c r="F8" s="13">
         <f>IF(VLOOKUP($A8,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A8,General!$A$2:$AH$51,22,FALSE)*$C8, 4))</f>
-        <v>7.8E-2</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="G8" s="17">
         <f>IF(VLOOKUP($A8,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A8,General!$A$2:$AH$51,23,FALSE)*$C8, 4))</f>
-        <v>9.5100000000000004E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="H8" s="17">
         <f>IF(VLOOKUP($A8,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A8,General!$A$2:$AH$51,24,FALSE)*$C8, 4))</f>
-        <v>0.11799999999999999</v>
+        <v>9.2299999999999993E-2</v>
       </c>
       <c r="I8" s="18" t="str">
         <f>IF(VLOOKUP($A8,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A8,General!$A$2:$AH$51,25,FALSE)*$C8, 4))</f>
@@ -8474,15 +8480,15 @@
       </c>
       <c r="J8" s="16">
         <f>IF($F8="-","-",ROUNDUP(1.6/$F8, 1))</f>
-        <v>20.6</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="K8" s="14">
         <f>IF($G8="-","-",ROUNDUP(1.6/$G8, 1))</f>
-        <v>16.900000000000002</v>
+        <v>21.5</v>
       </c>
       <c r="L8" s="14">
         <f>IF($H8="-","-",ROUNDUP(1.6/$H8, 1))</f>
-        <v>13.6</v>
+        <v>17.400000000000002</v>
       </c>
       <c r="M8" s="14" t="str">
         <f>IF($I8="-","-",ROUNDUP(1.6/$I8, 1))</f>
@@ -8503,15 +8509,15 @@
       </c>
       <c r="R8" s="14">
         <f>IF($F8="-","-",ROUNDUP(0.64/$F8, 1))</f>
-        <v>8.2999999999999989</v>
+        <v>10.5</v>
       </c>
       <c r="S8" s="14">
         <f>IF($G8="-","-",ROUNDUP(0.64/$G8, 1))</f>
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="T8" s="14">
         <f>IF($H8="-","-",ROUNDUP(0.64/$H8, 1))</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="U8" s="14" t="str">
         <f t="shared" si="2"/>
@@ -8568,15 +8574,15 @@
       </c>
       <c r="F9" s="13">
         <f>IF(VLOOKUP($A9,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A9,General!$A$2:$AH$51,22,FALSE)*$C9, 4))</f>
-        <v>8.2000000000000003E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="G9" s="17">
         <f>IF(VLOOKUP($A9,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A9,General!$A$2:$AH$51,23,FALSE)*$C9, 4))</f>
-        <v>9.6500000000000002E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H9" s="17">
         <f>IF(VLOOKUP($A9,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A9,General!$A$2:$AH$51,24,FALSE)*$C9, 4))</f>
-        <v>0.1158</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="I9" s="18" t="str">
         <f>IF(VLOOKUP($A9,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A9,General!$A$2:$AH$51,25,FALSE)*$C9, 4))</f>
@@ -8584,15 +8590,15 @@
       </c>
       <c r="J9" s="16">
         <f t="shared" ref="J9:J13" si="22">IF($F9="-","-",ROUNDUP(1.6/$F9, 1))</f>
-        <v>19.600000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" ref="K9:K13" si="23">IF($G9="-","-",ROUNDUP(1.6/$G9, 1))</f>
-        <v>16.600000000000001</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" ref="L9:L13" si="24">IF($H9="-","-",ROUNDUP(1.6/$H9, 1))</f>
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M9" s="14" t="str">
         <f t="shared" ref="M9:M13" si="25">IF($I9="-","-",ROUNDUP(1.6/$I9, 1))</f>
@@ -8600,15 +8606,15 @@
       </c>
       <c r="N9" s="13">
         <f t="shared" ref="N9:N13" si="26">IF($F9="-","-",ROUNDUP(1/$F9, 1))</f>
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="O9" s="17">
         <f t="shared" ref="O9:O13" si="27">IF($G9="-","-",ROUNDUP(1/$G9, 1))</f>
-        <v>10.4</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="P9" s="17">
         <f t="shared" ref="P9:P13" si="28">IF($H9="-","-",ROUNDUP(1/$H9, 1))</f>
-        <v>8.6999999999999993</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="Q9" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8616,15 +8622,15 @@
       </c>
       <c r="R9" s="14">
         <f t="shared" ref="R9:R13" si="29">IF($F9="-","-",ROUNDUP(0.64/$F9, 1))</f>
-        <v>7.8999999999999995</v>
+        <v>5.8</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" ref="S9:S13" si="30">IF($G9="-","-",ROUNDUP(0.64/$G9, 1))</f>
-        <v>6.6999999999999993</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" ref="T9:T13" si="31">IF($H9="-","-",ROUNDUP(0.64/$H9, 1))</f>
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U9" s="14" t="str">
         <f t="shared" si="2"/>
@@ -8632,15 +8638,15 @@
       </c>
       <c r="V9" s="13">
         <f t="shared" ref="V9:V13" si="32">IF($F9="-","-",ROUNDUP(0.6/$F9, 1))</f>
-        <v>7.3999999999999995</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="W9" s="17">
         <f t="shared" ref="W9:W13" si="33">IF($G9="-","-",ROUNDUP(0.6/$G9, 1))</f>
-        <v>6.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X9" s="17">
         <f t="shared" ref="X9:X13" si="34">IF($H9="-","-",ROUNDUP(0.6/$H9, 1))</f>
-        <v>5.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" s="18" t="str">
         <f t="shared" si="3"/>
@@ -8648,15 +8654,15 @@
       </c>
       <c r="Z9" s="14">
         <f t="shared" ref="Z9:Z13" si="35">IF($F9="-","-",ROUNDUP(0.5/$F9, 1))</f>
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="AA9" s="14">
         <f t="shared" ref="AA9:AA13" si="36">IF($G9="-","-",ROUNDUP(0.5/$G9, 1))</f>
-        <v>5.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="AB9" s="14">
         <f t="shared" ref="AB9:AB13" si="37">IF($H9="-","-",ROUNDUP(0.5/$H9, 1))</f>
-        <v>4.3999999999999995</v>
+        <v>3.2</v>
       </c>
       <c r="AC9" s="15" t="str">
         <f t="shared" si="21"/>
@@ -8687,15 +8693,15 @@
       </c>
       <c r="F10" s="13">
         <f>IF(VLOOKUP($A10,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A10,General!$A$2:$AH$51,22,FALSE)*$C10, 4))</f>
-        <v>8.2000000000000003E-2</v>
+        <v>0.1113</v>
       </c>
       <c r="G10" s="17">
         <f>IF(VLOOKUP($A10,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A10,General!$A$2:$AH$51,23,FALSE)*$C10, 4))</f>
-        <v>9.6500000000000002E-2</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="H10" s="17">
         <f>IF(VLOOKUP($A10,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A10,General!$A$2:$AH$51,24,FALSE)*$C10, 4))</f>
-        <v>0.1158</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="I10" s="18" t="str">
         <f>IF(VLOOKUP($A10,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A10,General!$A$2:$AH$51,25,FALSE)*$C10, 4))</f>
@@ -8703,15 +8709,15 @@
       </c>
       <c r="J10" s="16">
         <f t="shared" si="22"/>
-        <v>19.600000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="23"/>
-        <v>16.600000000000001</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="24"/>
-        <v>13.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="M10" s="14" t="str">
         <f t="shared" si="25"/>
@@ -8719,15 +8725,15 @@
       </c>
       <c r="N10" s="13">
         <f t="shared" si="26"/>
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="O10" s="17">
         <f t="shared" si="27"/>
-        <v>10.4</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="P10" s="17">
         <f t="shared" si="28"/>
-        <v>8.6999999999999993</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="Q10" s="18" t="str">
         <f t="shared" si="1"/>
@@ -8735,15 +8741,15 @@
       </c>
       <c r="R10" s="14">
         <f t="shared" si="29"/>
-        <v>7.8999999999999995</v>
+        <v>5.8</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="30"/>
-        <v>6.6999999999999993</v>
+        <v>4.8999999999999995</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" si="31"/>
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="U10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -8751,15 +8757,15 @@
       </c>
       <c r="V10" s="13">
         <f t="shared" si="32"/>
-        <v>7.3999999999999995</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="W10" s="17">
         <f t="shared" si="33"/>
-        <v>6.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" si="34"/>
-        <v>5.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="Y10" s="18" t="str">
         <f t="shared" si="3"/>
@@ -8767,15 +8773,15 @@
       </c>
       <c r="Z10" s="14">
         <f t="shared" si="35"/>
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="AA10" s="14">
         <f t="shared" si="36"/>
-        <v>5.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="AB10" s="14">
         <f t="shared" si="37"/>
-        <v>4.3999999999999995</v>
+        <v>3.2</v>
       </c>
       <c r="AC10" s="15" t="str">
         <f t="shared" si="21"/>
@@ -8806,15 +8812,15 @@
       </c>
       <c r="F11" s="13">
         <f>IF(VLOOKUP($A11,General!$A$2:$AH$51,22,FALSE)="-","-",ROUND(VLOOKUP($A11,General!$A$2:$AH$51,22,FALSE)*$C11, 4))</f>
-        <v>7.3800000000000004E-2</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="17">
         <f>IF(VLOOKUP($A11,General!$A$2:$AH$51,23,FALSE)="-","-",ROUND(VLOOKUP($A11,General!$A$2:$AH$51,23,FALSE)*$C11, 4))</f>
-        <v>7.7200000000000005E-2</v>
+        <v>0.1048</v>
       </c>
       <c r="H11" s="17">
         <f>IF(VLOOKUP($A11,General!$A$2:$AH$51,24,FALSE)="-","-",ROUND(VLOOKUP($A11,General!$A$2:$AH$51,24,FALSE)*$C11, 4))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>0.111</v>
       </c>
       <c r="I11" s="18" t="str">
         <f>IF(VLOOKUP($A11,General!$A$2:$AH$51,25,FALSE)="-","-",ROUND(VLOOKUP($A11,General!$A$2:$AH$51,25,FALSE)*$C11, 4))</f>
@@ -8822,15 +8828,15 @@
       </c>
       <c r="J11" s="16">
         <f t="shared" si="22"/>
-        <v>21.700000000000003</v>
+        <v>16</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="23"/>
-        <v>20.8</v>
+        <v>15.299999999999999</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="24"/>
-        <v>19.600000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="M11" s="14" t="str">
         <f t="shared" si="25"/>
@@ -9225,18 +9231,18 @@
       <c r="Q1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="78" t="s">
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="81"/>
       <c r="Z1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9286,53 +9292,53 @@
         <f>L2/(G2*E2+5*(2*0.5*Modifiers!$G$3*Modifiers!$G$5))-1</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="16" t="str">
         <f>VLOOKUP($A2,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.94599999999999995</v>
+        <v>-</v>
       </c>
       <c r="O2" s="14">
         <f>VLOOKUP($A2,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.351</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="P2" s="14">
         <f>VLOOKUP($A2,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.891</v>
+        <v>1.621</v>
       </c>
       <c r="Q2" s="14">
         <f>VLOOKUP($A2,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>3.1070000000000002</v>
-      </c>
-      <c r="R2" s="22">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="R2" s="22" t="str">
         <f t="shared" ref="R2:U11" si="0">IF(N2="-","-",ROUND(N2*$E2, 3))</f>
-        <v>0.52</v>
+        <v>-</v>
       </c>
       <c r="S2" s="60">
         <f t="shared" si="0"/>
-        <v>0.74299999999999999</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="T2" s="60">
         <f t="shared" si="0"/>
-        <v>1.04</v>
+        <v>0.89200000000000002</v>
       </c>
       <c r="U2" s="19">
         <f t="shared" si="0"/>
-        <v>1.7090000000000001</v>
-      </c>
-      <c r="V2" s="16">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="V2" s="16" t="str">
         <f>IF(N2="-","-",ROUND($L2/($G2/N2),3))</f>
-        <v>2.27</v>
+        <v>-</v>
       </c>
       <c r="W2" s="24">
         <f t="shared" ref="W2:Y2" si="1">IF(O2="-","-",ROUND($L2/($G2/O2),3))</f>
-        <v>3.242</v>
+        <v>2.7789999999999999</v>
       </c>
       <c r="X2" s="14">
         <f t="shared" si="1"/>
-        <v>4.5380000000000003</v>
+        <v>3.89</v>
       </c>
       <c r="Y2" s="14">
         <f t="shared" si="1"/>
-        <v>7.4569999999999999</v>
+        <v>6.391</v>
       </c>
       <c r="Z2" s="54" t="str">
         <f t="shared" ref="Z2:Z11" si="2">A2</f>
@@ -9386,51 +9392,51 @@
       </c>
       <c r="N3" s="16">
         <f>VLOOKUP($A3,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.23</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="O3" s="14">
         <f>VLOOKUP($A3,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.397</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="P3" s="14">
         <f>VLOOKUP($A3,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.621</v>
+        <v>1.274</v>
       </c>
       <c r="Q3" s="14">
         <f>VLOOKUP($A3,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>2.1240000000000001</v>
+        <v>1.669</v>
       </c>
       <c r="R3" s="22">
         <f t="shared" si="0"/>
-        <v>0.67700000000000005</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="S3" s="60">
         <f t="shared" si="0"/>
-        <v>0.76800000000000002</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="T3" s="60">
         <f t="shared" si="0"/>
-        <v>0.89200000000000002</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="U3" s="19">
         <f t="shared" si="0"/>
-        <v>1.1679999999999999</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="V3" s="16">
         <f t="shared" ref="V3:V10" si="3">IF(N3="-","-",ROUND($L3/($G3/N3),3))</f>
-        <v>2.952</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="W3" s="24">
         <f t="shared" ref="W3:W10" si="4">IF(O3="-","-",ROUND($L3/($G3/O3),3))</f>
-        <v>3.3530000000000002</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" ref="X3:X10" si="5">IF(P3="-","-",ROUND($L3/($G3/P3),3))</f>
-        <v>3.89</v>
+        <v>3.0579999999999998</v>
       </c>
       <c r="Y3" s="14">
         <f t="shared" ref="Y3:Y10" si="6">IF(Q3="-","-",ROUND($L3/($G3/Q3),3))</f>
-        <v>5.0979999999999999</v>
+        <v>4.0060000000000002</v>
       </c>
       <c r="Z3" s="54" t="str">
         <f t="shared" si="2"/>
@@ -9482,49 +9488,49 @@
         <f>L4/(G4*E4+5*(2*0.5*Modifiers!$G$3*Modifiers!$G$5))-1</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="16" t="str">
         <f>VLOOKUP($A4,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.96799999999999997</v>
+        <v>-</v>
       </c>
       <c r="O4" s="14">
         <f>VLOOKUP($A4,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.383</v>
+        <v>1.127</v>
       </c>
       <c r="P4" s="14">
         <f>VLOOKUP($A4,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.9370000000000001</v>
+        <v>1.5780000000000001</v>
       </c>
       <c r="Q4" s="14" t="str">
         <f>VLOOKUP($A4,General!$A$2:$AH$51,25,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="R4" s="22">
+      <c r="R4" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>0.53200000000000003</v>
+        <v>-</v>
       </c>
       <c r="S4" s="60">
         <f t="shared" si="0"/>
-        <v>0.76100000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="60">
         <f t="shared" si="0"/>
-        <v>1.0649999999999999</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="U4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>2.323</v>
+        <v>-</v>
       </c>
       <c r="W4" s="24">
         <f t="shared" si="4"/>
-        <v>3.319</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="5"/>
-        <v>4.649</v>
+        <v>3.7869999999999999</v>
       </c>
       <c r="Y4" s="14" t="str">
         <f t="shared" si="6"/>
@@ -9580,53 +9586,53 @@
         <f>L5/(G5*E5+5*(2*0.5*Modifiers!$G$3*Modifiers!$G$5))-1</f>
         <v>0.54838709677419351</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="16" t="str">
         <f>VLOOKUP($A5,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.60199999999999998</v>
-      </c>
-      <c r="O5" s="14">
+        <v>-</v>
+      </c>
+      <c r="O5" s="14" t="str">
         <f>VLOOKUP($A5,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.2290000000000001</v>
+        <v>-</v>
       </c>
       <c r="P5" s="14">
         <f>VLOOKUP($A5,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>2.0640000000000001</v>
+        <v>1.782</v>
       </c>
       <c r="Q5" s="14">
         <f>VLOOKUP($A5,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>3.944</v>
-      </c>
-      <c r="R5" s="22">
+        <v>3.46</v>
+      </c>
+      <c r="R5" s="22" t="str">
         <f t="shared" ref="R5:R6" si="7">IF(N5="-","-",ROUND(N5*$E5, 3))</f>
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="S5" s="60">
+        <v>-</v>
+      </c>
+      <c r="S5" s="60" t="str">
         <f t="shared" ref="S5:S6" si="8">IF(O5="-","-",ROUND(O5*$E5, 3))</f>
-        <v>0.67600000000000005</v>
+        <v>-</v>
       </c>
       <c r="T5" s="60">
         <f t="shared" ref="T5:T6" si="9">IF(P5="-","-",ROUND(P5*$E5, 3))</f>
-        <v>1.135</v>
+        <v>0.98</v>
       </c>
       <c r="U5" s="19">
         <f t="shared" ref="U5:U6" si="10">IF(Q5="-","-",ROUND(Q5*$E5, 3))</f>
-        <v>2.169</v>
-      </c>
-      <c r="V5" s="16">
+        <v>1.903</v>
+      </c>
+      <c r="V5" s="16" t="str">
         <f t="shared" ref="V5:V6" si="11">IF(N5="-","-",ROUND($L5/($G5/N5),3))</f>
-        <v>1.4450000000000001</v>
-      </c>
-      <c r="W5" s="24">
+        <v>-</v>
+      </c>
+      <c r="W5" s="24" t="str">
         <f t="shared" ref="W5:W6" si="12">IF(O5="-","-",ROUND($L5/($G5/O5),3))</f>
-        <v>2.95</v>
+        <v>-</v>
       </c>
       <c r="X5" s="14">
         <f t="shared" ref="X5:X6" si="13">IF(P5="-","-",ROUND($L5/($G5/P5),3))</f>
-        <v>4.9539999999999997</v>
+        <v>4.2770000000000001</v>
       </c>
       <c r="Y5" s="14">
         <f t="shared" ref="Y5:Y6" si="14">IF(Q5="-","-",ROUND($L5/($G5/Q5),3))</f>
-        <v>9.4659999999999993</v>
+        <v>8.3040000000000003</v>
       </c>
       <c r="Z5" s="54" t="str">
         <f t="shared" ref="Z5:Z6" si="15">A5</f>
@@ -9680,15 +9686,15 @@
       </c>
       <c r="N6" s="16">
         <f>VLOOKUP($A6,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.61599999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="O6" s="14">
         <f>VLOOKUP($A6,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.65500000000000003</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="P6" s="14">
         <f>VLOOKUP($A6,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>0.70799999999999996</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="Q6" s="14" t="str">
         <f>VLOOKUP($A6,General!$A$2:$AH$51,25,FALSE)</f>
@@ -9696,15 +9702,15 @@
       </c>
       <c r="R6" s="22">
         <f t="shared" si="7"/>
-        <v>0.33900000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="S6" s="60">
         <f t="shared" si="8"/>
-        <v>0.36</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="T6" s="60">
         <f t="shared" si="9"/>
-        <v>0.38900000000000001</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="U6" s="19" t="str">
         <f t="shared" si="10"/>
@@ -9712,15 +9718,15 @@
       </c>
       <c r="V6" s="16">
         <f t="shared" si="11"/>
-        <v>1.478</v>
+        <v>1.5069999999999999</v>
       </c>
       <c r="W6" s="24">
         <f t="shared" si="12"/>
-        <v>1.5720000000000001</v>
+        <v>1.603</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="13"/>
-        <v>1.6990000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="Y6" s="14" t="str">
         <f t="shared" si="14"/>
@@ -9778,51 +9784,51 @@
       </c>
       <c r="N7" s="16">
         <f>VLOOKUP($A7,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.028</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="O7" s="14">
         <f>VLOOKUP($A7,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.2529999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="P7" s="14">
         <f>VLOOKUP($A7,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.554</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="Q7" s="14">
         <f>VLOOKUP($A7,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>2.2309999999999999</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="R7" s="22">
         <f t="shared" si="0"/>
-        <v>0.61699999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="S7" s="60">
         <f t="shared" si="0"/>
-        <v>0.752</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="T7" s="60">
         <f t="shared" si="0"/>
-        <v>0.93200000000000005</v>
+        <v>0.746</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" si="0"/>
-        <v>1.339</v>
+        <v>1.071</v>
       </c>
       <c r="V7" s="16">
         <f t="shared" si="3"/>
-        <v>2.4670000000000001</v>
+        <v>1.9730000000000001</v>
       </c>
       <c r="W7" s="24">
         <f t="shared" si="4"/>
-        <v>3.0070000000000001</v>
+        <v>2.407</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="5"/>
-        <v>3.73</v>
+        <v>2.9830000000000001</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" si="6"/>
-        <v>5.3540000000000001</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="Z7" s="54" t="str">
         <f t="shared" si="2"/>
@@ -9876,15 +9882,15 @@
       </c>
       <c r="N8" s="16">
         <f>VLOOKUP($A8,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.56</v>
+        <v>1.2210000000000001</v>
       </c>
       <c r="O8" s="14">
         <f>VLOOKUP($A8,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.9019999999999999</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="P8" s="14">
         <f>VLOOKUP($A8,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>2.359</v>
+        <v>1.8460000000000001</v>
       </c>
       <c r="Q8" s="14" t="str">
         <f>VLOOKUP($A8,General!$A$2:$AH$51,25,FALSE)</f>
@@ -9892,15 +9898,15 @@
       </c>
       <c r="R8" s="22">
         <f t="shared" si="0"/>
-        <v>0.46800000000000003</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="S8" s="60">
         <f t="shared" si="0"/>
-        <v>0.57099999999999995</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="T8" s="60">
         <f t="shared" si="0"/>
-        <v>0.70799999999999996</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="U8" s="19" t="str">
         <f t="shared" si="0"/>
@@ -9908,15 +9914,15 @@
       </c>
       <c r="V8" s="16">
         <f t="shared" si="3"/>
-        <v>2.5350000000000001</v>
+        <v>1.984</v>
       </c>
       <c r="W8" s="24">
         <f t="shared" si="4"/>
-        <v>3.0910000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="X8" s="14">
         <f t="shared" si="5"/>
-        <v>3.8330000000000002</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="14" t="str">
         <f t="shared" si="6"/>
@@ -9974,15 +9980,15 @@
       </c>
       <c r="N9" s="16">
         <f>VLOOKUP($A9,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.64</v>
+        <v>2.226</v>
       </c>
       <c r="O9" s="14">
         <f>VLOOKUP($A9,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.93</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="P9" s="14">
         <f>VLOOKUP($A9,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>2.3159999999999998</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="Q9" s="14" t="str">
         <f>VLOOKUP($A9,General!$A$2:$AH$51,25,FALSE)</f>
@@ -9990,15 +9996,15 @@
       </c>
       <c r="R9" s="22">
         <f t="shared" si="0"/>
-        <v>0.90200000000000002</v>
+        <v>1.224</v>
       </c>
       <c r="S9" s="60">
         <f t="shared" si="0"/>
-        <v>1.0620000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="T9" s="60">
         <f t="shared" si="0"/>
-        <v>1.274</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="U9" s="19" t="str">
         <f t="shared" si="0"/>
@@ -10006,15 +10012,15 @@
       </c>
       <c r="V9" s="16">
         <f t="shared" si="3"/>
-        <v>3.9359999999999999</v>
+        <v>5.3419999999999996</v>
       </c>
       <c r="W9" s="24">
         <f t="shared" si="4"/>
-        <v>4.6319999999999997</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="5"/>
-        <v>5.5579999999999998</v>
+        <v>7.5430000000000001</v>
       </c>
       <c r="Y9" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10072,15 +10078,15 @@
       </c>
       <c r="N10" s="16">
         <f>VLOOKUP($A10,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.64</v>
+        <v>2.226</v>
       </c>
       <c r="O10" s="14">
         <f>VLOOKUP($A10,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.93</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="P10" s="14">
         <f>VLOOKUP($A10,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>2.3159999999999998</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="Q10" s="14" t="str">
         <f>VLOOKUP($A10,General!$A$2:$AH$51,25,FALSE)</f>
@@ -10088,15 +10094,15 @@
       </c>
       <c r="R10" s="22">
         <f t="shared" si="0"/>
-        <v>0.98399999999999999</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="S10" s="60">
         <f t="shared" si="0"/>
-        <v>1.1579999999999999</v>
+        <v>1.571</v>
       </c>
       <c r="T10" s="60">
         <f t="shared" si="0"/>
-        <v>1.39</v>
+        <v>1.8859999999999999</v>
       </c>
       <c r="U10" s="19" t="str">
         <f t="shared" si="0"/>
@@ -10104,15 +10110,15 @@
       </c>
       <c r="V10" s="16">
         <f t="shared" si="3"/>
-        <v>3.9359999999999999</v>
+        <v>5.3419999999999996</v>
       </c>
       <c r="W10" s="24">
         <f t="shared" si="4"/>
-        <v>4.6319999999999997</v>
+        <v>6.2859999999999996</v>
       </c>
       <c r="X10" s="14">
         <f t="shared" si="5"/>
-        <v>5.5579999999999998</v>
+        <v>7.5430000000000001</v>
       </c>
       <c r="Y10" s="14" t="str">
         <f t="shared" si="6"/>
@@ -10171,51 +10177,51 @@
       </c>
       <c r="N11" s="16">
         <f>VLOOKUP($A11,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.74299999999999999</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="O11" s="14">
         <f>VLOOKUP($A11,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.94099999999999995</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="P11" s="14">
         <f>VLOOKUP($A11,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.204</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="Q11" s="14">
         <f>VLOOKUP($A11,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>1.7969999999999999</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="R11" s="22">
         <f t="shared" si="0"/>
-        <v>0.55700000000000005</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="S11" s="60">
         <f t="shared" si="0"/>
-        <v>0.70599999999999996</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="T11" s="60">
         <f t="shared" si="0"/>
-        <v>0.90300000000000002</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="U11" s="19">
         <f t="shared" si="0"/>
-        <v>1.3480000000000001</v>
+        <v>1.0369999999999999</v>
       </c>
       <c r="V11" s="16">
         <f t="shared" ref="V11" si="16">IF(N11="-","-",ROUND($L11/($G11/N11),3))</f>
-        <v>0.69399999999999995</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="W11" s="24">
         <f t="shared" ref="W11" si="17">IF(O11="-","-",ROUND($L11/($G11/O11),3))</f>
-        <v>0.879</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" ref="X11" si="18">IF(P11="-","-",ROUND($L11/($G11/P11),3))</f>
-        <v>1.125</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="Y11" s="14">
         <f t="shared" ref="Y11" si="19">IF(Q11="-","-",ROUND($L11/($G11/Q11),3))</f>
-        <v>1.679</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="Z11" s="54" t="str">
         <f t="shared" si="2"/>
@@ -10271,15 +10277,15 @@
       </c>
       <c r="N12" s="16">
         <f>VLOOKUP($A12,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.14399999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="O12" s="14">
         <f>VLOOKUP($A12,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.20599999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="P12" s="14">
         <f>VLOOKUP($A12,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>0.28799999999999998</v>
+        <v>0.216</v>
       </c>
       <c r="Q12" s="14" t="str">
         <f>VLOOKUP($A12,General!$A$2:$AH$51,25,FALSE)</f>
@@ -10287,15 +10293,15 @@
       </c>
       <c r="R12" s="22">
         <f t="shared" ref="R12" si="20">IF(N12="-","-",ROUND(N12*$E12, 3))</f>
-        <v>0.39600000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="S12" s="60">
         <f t="shared" ref="S12" si="21">IF(O12="-","-",ROUND(O12*$E12, 3))</f>
-        <v>0.56699999999999995</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="T12" s="60">
         <f t="shared" ref="T12" si="22">IF(P12="-","-",ROUND(P12*$E12, 3))</f>
-        <v>0.79200000000000004</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="U12" s="19" t="str">
         <f t="shared" ref="U12" si="23">IF(Q12="-","-",ROUND(Q12*$E12, 3))</f>
@@ -10303,15 +10309,15 @@
       </c>
       <c r="V12" s="16">
         <f t="shared" ref="V12" si="24">IF(N12="-","-",ROUND($L12/($G12/N12),3))</f>
-        <v>0.35399999999999998</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="W12" s="24">
         <f t="shared" ref="W12" si="25">IF(O12="-","-",ROUND($L12/($G12/O12),3))</f>
-        <v>0.50600000000000001</v>
+        <v>0.378</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" ref="X12" si="26">IF(P12="-","-",ROUND($L12/($G12/P12),3))</f>
-        <v>0.70799999999999996</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="Y12" s="14" t="str">
         <f t="shared" ref="Y12" si="27">IF(Q12="-","-",ROUND($L12/($G12/Q12),3))</f>
@@ -10468,51 +10474,51 @@
       </c>
       <c r="N14" s="16">
         <f>VLOOKUP($A14,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.91500000000000004</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="O14" s="14">
         <f>VLOOKUP($A14,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.1579999999999999</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="P14" s="14">
         <f>VLOOKUP($A14,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.482</v>
+        <v>1.1859999999999999</v>
       </c>
       <c r="Q14" s="14">
         <f>VLOOKUP($A14,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>2.2120000000000002</v>
+        <v>1.77</v>
       </c>
       <c r="R14" s="22">
         <f t="shared" si="29"/>
-        <v>0.59499999999999997</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="S14" s="60">
         <f t="shared" si="30"/>
-        <v>0.753</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="T14" s="60">
         <f t="shared" si="31"/>
-        <v>0.96299999999999997</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="U14" s="19">
         <f t="shared" si="32"/>
-        <v>1.4379999999999999</v>
+        <v>1.151</v>
       </c>
       <c r="V14" s="16">
         <f t="shared" si="33"/>
-        <v>1.0980000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="W14" s="24">
         <f t="shared" si="34"/>
-        <v>1.39</v>
+        <v>1.111</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" si="35"/>
-        <v>1.778</v>
+        <v>1.423</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" si="36"/>
-        <v>2.6539999999999999</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="Z14" s="54" t="str">
         <f t="shared" si="37"/>
@@ -10566,51 +10572,51 @@
       </c>
       <c r="N15" s="16">
         <f>VLOOKUP($A15,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.59399999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="O15" s="14">
         <f>VLOOKUP($A15,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.84899999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="P15" s="14">
         <f>VLOOKUP($A15,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.1890000000000001</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="Q15" s="14">
         <f>VLOOKUP($A15,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>1.9530000000000001</v>
+        <v>1.5980000000000001</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" ref="R15" si="39">IF(N15="-","-",ROUND(N15*$E15, 3))</f>
-        <v>0.505</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="S15" s="60">
         <f t="shared" ref="S15" si="40">IF(O15="-","-",ROUND(O15*$E15, 3))</f>
-        <v>0.72199999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="T15" s="60">
         <f t="shared" ref="T15" si="41">IF(P15="-","-",ROUND(P15*$E15, 3))</f>
-        <v>1.0109999999999999</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="U15" s="19">
         <f t="shared" ref="U15" si="42">IF(Q15="-","-",ROUND(Q15*$E15, 3))</f>
-        <v>1.66</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="V15" s="16">
         <f t="shared" ref="V15" si="43">IF(N15="-","-",ROUND($L15/($G15/N15),3))</f>
-        <v>0.81699999999999995</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="W15" s="24">
         <f t="shared" ref="W15" si="44">IF(O15="-","-",ROUND($L15/($G15/O15),3))</f>
-        <v>1.167</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="X15" s="14">
         <f t="shared" ref="X15" si="45">IF(P15="-","-",ROUND($L15/($G15/P15),3))</f>
-        <v>1.635</v>
+        <v>1.3380000000000001</v>
       </c>
       <c r="Y15" s="14">
         <f t="shared" ref="Y15" si="46">IF(Q15="-","-",ROUND($L15/($G15/Q15),3))</f>
-        <v>2.6850000000000001</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="Z15" s="54" t="str">
         <f t="shared" ref="Z15" si="47">A15</f>
@@ -10664,51 +10670,51 @@
       </c>
       <c r="N16" s="16">
         <f>VLOOKUP($A16,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="O16" s="14">
         <f>VLOOKUP($A16,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.64300000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="P16" s="14">
         <f>VLOOKUP($A16,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>0.90100000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="Q16" s="14">
         <f>VLOOKUP($A16,General!$A$2:$AH$51,25,FALSE)</f>
-        <v>1.48</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="R16" s="22">
         <f t="shared" ref="R16" si="48">IF(N16="-","-",ROUND(N16*$E16, 3))</f>
-        <v>0.47299999999999998</v>
+        <v>0.378</v>
       </c>
       <c r="S16" s="60">
         <f t="shared" ref="S16" si="49">IF(O16="-","-",ROUND(O16*$E16, 3))</f>
-        <v>0.67500000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="T16" s="60">
         <f t="shared" ref="T16" si="50">IF(P16="-","-",ROUND(P16*$E16, 3))</f>
-        <v>0.94599999999999995</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" ref="U16" si="51">IF(Q16="-","-",ROUND(Q16*$E16, 3))</f>
-        <v>1.554</v>
+        <v>1.2430000000000001</v>
       </c>
       <c r="V16" s="16">
         <f t="shared" ref="V16" si="52">IF(N16="-","-",ROUND($L16/($G16/N16),3))</f>
-        <v>0.78800000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="W16" s="24">
         <f t="shared" ref="W16" si="53">IF(O16="-","-",ROUND($L16/($G16/O16),3))</f>
-        <v>1.125</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="X16" s="14">
         <f t="shared" ref="X16" si="54">IF(P16="-","-",ROUND($L16/($G16/P16),3))</f>
-        <v>1.577</v>
+        <v>1.26</v>
       </c>
       <c r="Y16" s="14">
         <f t="shared" ref="Y16" si="55">IF(Q16="-","-",ROUND($L16/($G16/Q16),3))</f>
-        <v>2.59</v>
+        <v>2.0720000000000001</v>
       </c>
       <c r="Z16" s="54" t="str">
         <f t="shared" ref="Z16" si="56">A16</f>
@@ -10760,15 +10766,15 @@
       </c>
       <c r="N17" s="16">
         <f>VLOOKUP($A17,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>0.36899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="14">
         <f>VLOOKUP($A17,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>0.38600000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="P17" s="14">
         <f>VLOOKUP($A17,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>0.40899999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="Q17" s="14" t="str">
         <f>VLOOKUP($A17,General!$A$2:$AH$51,25,FALSE)</f>
@@ -10776,15 +10782,15 @@
       </c>
       <c r="R17" s="22">
         <f t="shared" ref="R17:R18" si="57">IF(N17="-","-",ROUND(N17*$E17, 3))</f>
-        <v>2.7679999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="S17" s="60">
         <f t="shared" ref="S17:S18" si="58">IF(O17="-","-",ROUND(O17*$E17, 3))</f>
-        <v>2.895</v>
+        <v>3.93</v>
       </c>
       <c r="T17" s="60">
         <f t="shared" ref="T17:T18" si="59">IF(P17="-","-",ROUND(P17*$E17, 3))</f>
-        <v>3.0680000000000001</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="U17" s="19" t="str">
         <f t="shared" ref="U17:U18" si="60">IF(Q17="-","-",ROUND(Q17*$E17, 3))</f>
@@ -12353,15 +12359,15 @@
       </c>
       <c r="N33" s="16">
         <f>VLOOKUP($A33,General!$A$2:$AH$51,22,FALSE)</f>
-        <v>1.0620000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="O33" s="14">
         <f>VLOOKUP($A33,General!$A$2:$AH$51,23,FALSE)</f>
-        <v>1.2490000000000001</v>
+        <v>1</v>
       </c>
       <c r="P33" s="14">
         <f>VLOOKUP($A33,General!$A$2:$AH$51,24,FALSE)</f>
-        <v>1.4990000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="Q33" s="14" t="str">
         <f>VLOOKUP($A33,General!$A$2:$AH$51,25,FALSE)</f>
@@ -12369,15 +12375,15 @@
       </c>
       <c r="R33" s="22">
         <f t="shared" ref="R33:R34" si="87">IF(N33="-","-",ROUND(N33*$E33, 3))</f>
-        <v>0.63700000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="S33" s="60">
         <f t="shared" ref="S33:S34" si="88">IF(O33="-","-",ROUND(O33*$E33, 3))</f>
-        <v>0.749</v>
+        <v>0.6</v>
       </c>
       <c r="T33" s="60">
         <f t="shared" ref="T33:T34" si="89">IF(P33="-","-",ROUND(P33*$E33, 3))</f>
-        <v>0.89900000000000002</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="U33" s="19" t="str">
         <f t="shared" ref="U33:U34" si="90">IF(Q33="-","-",ROUND(Q33*$E33, 3))</f>
@@ -12385,15 +12391,15 @@
       </c>
       <c r="V33" s="16">
         <f t="shared" ref="V33" si="91">IF(N33="-","-",ROUND($L33/($G33/N33),3))</f>
-        <v>1.0660000000000001</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="W33" s="24">
         <f t="shared" ref="W33" si="92">IF(O33="-","-",ROUND($L33/($G33/O33),3))</f>
-        <v>1.254</v>
+        <v>1.004</v>
       </c>
       <c r="X33" s="14">
         <f t="shared" ref="X33" si="93">IF(P33="-","-",ROUND($L33/($G33/P33),3))</f>
-        <v>1.5049999999999999</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="Y33" s="14" t="str">
         <f t="shared" ref="Y33:Y34" si="94">IF(Q33="-","-",ROUND($L33/($G33/Q33),3))</f>
@@ -12769,16 +12775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="E1" s="81" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="84"/>
+      <c r="E1" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="84"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
